--- a/dev-topics-codingexams/dev-topics-amazon-rangeconsolidator/analytics/raw_data/test_run.xlsx
+++ b/dev-topics-codingexams/dev-topics-amazon-rangeconsolidator/analytics/raw_data/test_run.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="38" windowWidth="27390" windowHeight="11768" activeTab="1"/>
+    <workbookView xWindow="420" yWindow="38" windowWidth="27390" windowHeight="11768"/>
   </bookViews>
   <sheets>
     <sheet name="test_run" sheetId="1" r:id="rId1"/>
-    <sheet name="test_10x_run" sheetId="2" r:id="rId2"/>
+    <sheet name="test_10x_run" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="14">
   <si>
     <t>case</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>nLogn/10K</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L2Rx10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R2Lx10</t>
+  </si>
+  <si>
+    <t>nLogn/100K</t>
   </si>
 </sst>
 </file>
@@ -859,121 +868,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="124377728"/>
-        <c:axId val="124384000"/>
+        <c:axId val="125691392"/>
+        <c:axId val="125693312"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>test_run!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ratio</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>test_run!$B$2:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>test_run!$G$2:$G$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2.3260000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8130000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.9790000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.23</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2989999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.5049999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.6120000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.0649999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.2250000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.52</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.657</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>test_run!$H$1</c:f>
@@ -1085,11 +988,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="140789632"/>
-        <c:axId val="35429760"/>
+        <c:axId val="126295424"/>
+        <c:axId val="126293504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124377728"/>
+        <c:axId val="125691392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12000"/>
@@ -1125,14 +1028,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124384000"/>
+        <c:crossAx val="125693312"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
         <c:minorUnit val="500"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124384000"/>
+        <c:axId val="125693312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="600"/>
@@ -1178,14 +1081,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124377728"/>
+        <c:crossAx val="125691392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="100"/>
         <c:minorUnit val="25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35429760"/>
+        <c:axId val="126293504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -1216,14 +1119,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140789632"/>
+        <c:crossAx val="126295424"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
         <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140789632"/>
+        <c:axId val="126295424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1233,7 +1136,557 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35429760"/>
+        <c:crossAx val="126293504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Execution Time vs Intervals</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test_10x_run!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> L2Rx10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>test_10x_run!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>115000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>test_10x_run!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>287.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>710.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1562.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1875.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2271.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2718.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3137.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3743.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4294.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4896.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5535.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test_10x_run!$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> R2Lx10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>test_10x_run!$B$14:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>115000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>test_10x_run!$E$14:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>135.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>162.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>172.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>179.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>182.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>187.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>191.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>193.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>197.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>199.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>202.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="37730176"/>
+        <c:axId val="128716800"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test_10x_run!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nLogn/100K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>test_10x_run!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>115000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>test_10x_run!$H$2:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="128720896"/>
+        <c:axId val="128718720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="37730176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Random Intervals</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="128716800"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10000"/>
+        <c:minorUnit val="5000"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="128716800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nano</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="37730176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1000"/>
+        <c:minorUnit val="250"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="128718720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="128720896"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="128720896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="128718720"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -1273,6 +1726,43 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>642939</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>14289</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1578,7 +2068,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2208,12 +2700,632 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5000</v>
+      </c>
+      <c r="C2">
+        <v>75000</v>
+      </c>
+      <c r="D2">
+        <v>21586600</v>
+      </c>
+      <c r="E2" s="3">
+        <v>287.8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4">
+        <f>ROUND(E2/E14, 3)</f>
+        <v>2.13</v>
+      </c>
+      <c r="H2" s="5">
+        <f>ROUND(B2*LOG(B2)/100000, 2)</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>15000</v>
+      </c>
+      <c r="C3">
+        <v>225000</v>
+      </c>
+      <c r="D3">
+        <v>159778700</v>
+      </c>
+      <c r="E3" s="3">
+        <v>710.1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G13" si="0">ROUND(E3/E15, 3)</f>
+        <v>4.375</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H13" si="1">ROUND(B3*LOG(B3)/100000, 2)</f>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>25000</v>
+      </c>
+      <c r="C4">
+        <v>375000</v>
+      </c>
+      <c r="D4">
+        <v>417757100</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1114</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="0"/>
+        <v>6.4770000000000003</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>35000</v>
+      </c>
+      <c r="C5">
+        <v>525000</v>
+      </c>
+      <c r="D5">
+        <v>820235400</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1562.4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>9.0419999999999998</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="1"/>
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>45000</v>
+      </c>
+      <c r="C6">
+        <v>675000</v>
+      </c>
+      <c r="D6">
+        <v>1265933700</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1875.5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>10.465999999999999</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="1"/>
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>55000</v>
+      </c>
+      <c r="C7">
+        <v>825000</v>
+      </c>
+      <c r="D7">
+        <v>1873753100</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2271.1999999999998</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>12.417999999999999</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="1"/>
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>65000</v>
+      </c>
+      <c r="C8">
+        <v>975000</v>
+      </c>
+      <c r="D8">
+        <v>2650288900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2718.2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>14.497</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="1"/>
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>75000</v>
+      </c>
+      <c r="C9">
+        <v>1125000</v>
+      </c>
+      <c r="D9">
+        <v>3529236000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3137.1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>16.373000000000001</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="1"/>
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>85000</v>
+      </c>
+      <c r="C10">
+        <v>1275000</v>
+      </c>
+      <c r="D10">
+        <v>4772866200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3743.4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>19.315999999999999</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="1"/>
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>95000</v>
+      </c>
+      <c r="C11">
+        <v>1425000</v>
+      </c>
+      <c r="D11">
+        <v>6120142300</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4294.8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>21.779</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="1"/>
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>105000</v>
+      </c>
+      <c r="C12">
+        <v>1575000</v>
+      </c>
+      <c r="D12">
+        <v>7711560800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4896.2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>24.53</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="1"/>
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>115000</v>
+      </c>
+      <c r="C13">
+        <v>1725000</v>
+      </c>
+      <c r="D13">
+        <v>9548554000</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5535.4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>27.361999999999998</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="1"/>
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>5000</v>
+      </c>
+      <c r="C14">
+        <v>90000</v>
+      </c>
+      <c r="D14">
+        <v>12159900</v>
+      </c>
+      <c r="E14" s="3">
+        <v>135.1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>15000</v>
+      </c>
+      <c r="C15">
+        <v>270000</v>
+      </c>
+      <c r="D15">
+        <v>43818400</v>
+      </c>
+      <c r="E15" s="3">
+        <v>162.30000000000001</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>25000</v>
+      </c>
+      <c r="C16">
+        <v>450000</v>
+      </c>
+      <c r="D16">
+        <v>77415700</v>
+      </c>
+      <c r="E16" s="3">
+        <v>172</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>35000</v>
+      </c>
+      <c r="C17">
+        <v>630000</v>
+      </c>
+      <c r="D17">
+        <v>108845800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>172.8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>45000</v>
+      </c>
+      <c r="C18">
+        <v>810000</v>
+      </c>
+      <c r="D18">
+        <v>145117000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>179.2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>55000</v>
+      </c>
+      <c r="C19">
+        <v>990000</v>
+      </c>
+      <c r="D19">
+        <v>181065300</v>
+      </c>
+      <c r="E19" s="3">
+        <v>182.9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>65000</v>
+      </c>
+      <c r="C20">
+        <v>1170000</v>
+      </c>
+      <c r="D20">
+        <v>219394800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>187.5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>75000</v>
+      </c>
+      <c r="C21">
+        <v>1350000</v>
+      </c>
+      <c r="D21">
+        <v>258666500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>191.6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>85000</v>
+      </c>
+      <c r="C22">
+        <v>1530000</v>
+      </c>
+      <c r="D22">
+        <v>296551900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>193.8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>95000</v>
+      </c>
+      <c r="C23">
+        <v>1710000</v>
+      </c>
+      <c r="D23">
+        <v>337168300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>197.2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>105000</v>
+      </c>
+      <c r="C24">
+        <v>1890000</v>
+      </c>
+      <c r="D24">
+        <v>377279800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>199.6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>115000</v>
+      </c>
+      <c r="C25">
+        <v>2070000</v>
+      </c>
+      <c r="D25">
+        <v>418787000</v>
+      </c>
+      <c r="E25" s="3">
+        <v>202.3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dev-topics-codingexams/dev-topics-amazon-rangeconsolidator/analytics/raw_data/test_run.xlsx
+++ b/dev-topics-codingexams/dev-topics-amazon-rangeconsolidator/analytics/raw_data/test_run.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="13">
   <si>
     <t>case</t>
   </si>
@@ -44,28 +44,24 @@
     <t>u_nano</t>
   </si>
   <si>
-    <t>Ratio</t>
-  </si>
-  <si>
     <t>nLogn/10K</t>
   </si>
   <si>
-    <t xml:space="preserve"> L2Rx10</t>
+    <t>nLogn/100K</t>
   </si>
   <si>
-    <t xml:space="preserve"> R2Lx10</t>
+    <t xml:space="preserve"> L2R10x</t>
   </si>
   <si>
-    <t>nLogn/100K</t>
+    <t xml:space="preserve"> R2L10x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -545,14 +541,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -646,7 +640,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -714,45 +708,45 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>444</c:v>
+                  <c:v>522.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>471.7</c:v>
+                  <c:v>417</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>295.3</c:v>
+                  <c:v>476.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>332.5</c:v>
+                  <c:v>291.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>318.39999999999998</c:v>
+                  <c:v>354.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>345.5</c:v>
+                  <c:v>370.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>377.7</c:v>
+                  <c:v>418</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>406.7</c:v>
+                  <c:v>477.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>470.1</c:v>
+                  <c:v>493</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>489.2</c:v>
+                  <c:v>511.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>541.29999999999995</c:v>
+                  <c:v>565.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>596.4</c:v>
+                  <c:v>622.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -820,45 +814,45 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>190.9</c:v>
+                  <c:v>197.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>167.7</c:v>
+                  <c:v>224.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>149.19999999999999</c:v>
+                  <c:v>151.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>149.1</c:v>
+                  <c:v>158.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150.9</c:v>
+                  <c:v>162.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>150.30000000000001</c:v>
+                  <c:v>155.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>150.80000000000001</c:v>
+                  <c:v>155.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>155.69999999999999</c:v>
+                  <c:v>174.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>153.4</c:v>
+                  <c:v>159.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>151.69999999999999</c:v>
+                  <c:v>166.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>153.80000000000001</c:v>
+                  <c:v>167.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>163.1</c:v>
+                  <c:v>166.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -868,18 +862,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="125691392"/>
-        <c:axId val="125693312"/>
+        <c:axId val="126870272"/>
+        <c:axId val="126872192"/>
       </c:scatterChart>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>test_run!$H$1</c:f>
+              <c:f>test_run!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -935,7 +929,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>test_run!$H$2:$H$13</c:f>
+              <c:f>test_run!$G$2:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -978,7 +972,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -988,11 +982,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="126295424"/>
-        <c:axId val="126293504"/>
+        <c:axId val="149549440"/>
+        <c:axId val="149753856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125691392"/>
+        <c:axId val="126870272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12000"/>
@@ -1028,17 +1022,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125693312"/>
+        <c:crossAx val="126872192"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
         <c:minorUnit val="500"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125693312"/>
+        <c:axId val="126872192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="600"/>
+          <c:max val="650"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1081,14 +1075,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125691392"/>
+        <c:crossAx val="126870272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="100"/>
         <c:minorUnit val="25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126293504"/>
+        <c:axId val="149753856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -1107,7 +1101,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Ratio</a:t>
+                  <a:t>Log	</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1115,18 +1109,18 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126295424"/>
+        <c:crossAx val="149549440"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
-        <c:minorUnit val="0.1"/>
+        <c:minorUnit val="0.25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126295424"/>
+        <c:axId val="149549440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1136,8 +1130,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126293504"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="149753856"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -1206,7 +1199,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> L2Rx10</c:v>
+                  <c:v> L2R10x</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1263,40 +1256,40 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>287.8</c:v>
+                  <c:v>358.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>710.1</c:v>
+                  <c:v>795.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1114</c:v>
+                  <c:v>1305.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1562.4</c:v>
+                  <c:v>1766.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1875.5</c:v>
+                  <c:v>2202.3000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2271.1999999999998</c:v>
+                  <c:v>2702.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2718.2</c:v>
+                  <c:v>3223.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3137.1</c:v>
+                  <c:v>3722.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3743.4</c:v>
+                  <c:v>4424.8999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4294.8</c:v>
+                  <c:v>5030.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4896.2</c:v>
+                  <c:v>5678.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5535.4</c:v>
+                  <c:v>6471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1312,7 +1305,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> R2Lx10</c:v>
+                  <c:v> R2L10x</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1369,40 +1362,40 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>135.1</c:v>
+                  <c:v>164.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>162.30000000000001</c:v>
+                  <c:v>170.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>172</c:v>
+                  <c:v>187.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>172.8</c:v>
+                  <c:v>209.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>179.2</c:v>
+                  <c:v>212.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>182.9</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>187.5</c:v>
+                  <c:v>222.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>191.6</c:v>
+                  <c:v>227.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>193.8</c:v>
+                  <c:v>227.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>197.2</c:v>
+                  <c:v>233.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>199.6</c:v>
+                  <c:v>241.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>202.3</c:v>
+                  <c:v>242.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1417,8 +1410,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="37730176"/>
-        <c:axId val="128716800"/>
+        <c:axId val="127227776"/>
+        <c:axId val="127234048"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -1428,7 +1421,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>test_10x_run!$H$1</c:f>
+              <c:f>test_10x_run!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1484,7 +1477,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>test_10x_run!$H$2:$H$13</c:f>
+              <c:f>test_10x_run!$G$2:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1537,11 +1530,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="128720896"/>
-        <c:axId val="128718720"/>
+        <c:axId val="127246336"/>
+        <c:axId val="127235968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="37730176"/>
+        <c:axId val="127227776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120000"/>
@@ -1577,17 +1570,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128716800"/>
+        <c:crossAx val="127234048"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10000"/>
         <c:minorUnit val="5000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="128716800"/>
+        <c:axId val="127234048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6000"/>
+          <c:max val="6500"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1630,14 +1623,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37730176"/>
+        <c:crossAx val="127227776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1000"/>
         <c:minorUnit val="250"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="128718720"/>
+        <c:axId val="127235968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1656,7 +1649,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Ratio</a:t>
+                  <a:t>Log</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1666,16 +1659,16 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128720896"/>
+        <c:crossAx val="127246336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
-        <c:minorUnit val="0.1"/>
+        <c:minorUnit val="0.25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="128720896"/>
+        <c:axId val="127246336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1685,7 +1678,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128718720"/>
+        <c:crossAx val="127235968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1711,13 +1704,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>642939</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>14289</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>109538</xdr:rowOff>
@@ -1746,13 +1739,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>642939</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>14289</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>109538</xdr:rowOff>
@@ -2066,11 +2059,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2080,37 +2071,33 @@
     <col min="4" max="4" width="9.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2118,27 +2105,23 @@
         <v>500</v>
       </c>
       <c r="C2">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="D2">
-        <v>3330300</v>
-      </c>
-      <c r="E2" s="3">
-        <v>444</v>
+        <v>5481600</v>
+      </c>
+      <c r="E2" s="2">
+        <v>522.1</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4">
-        <f>ROUND(E2/E14, 3)</f>
-        <v>2.3260000000000001</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="G2" s="3">
         <f>ROUND(B2*LOG(B2)/10000, 2)</f>
         <v>0.13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2146,27 +2129,23 @@
         <v>1500</v>
       </c>
       <c r="C3">
-        <v>22500</v>
+        <v>31500</v>
       </c>
       <c r="D3">
-        <v>10614000</v>
-      </c>
-      <c r="E3" s="3">
-        <v>471.7</v>
+        <v>13135100</v>
+      </c>
+      <c r="E3" s="2">
+        <v>417</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4">
-        <f t="shared" ref="G3:G13" si="0">ROUND(E3/E15, 3)</f>
-        <v>2.8130000000000002</v>
-      </c>
-      <c r="H3" s="5">
-        <f t="shared" ref="H3:H13" si="1">ROUND(B3*LOG(B3)/10000, 2)</f>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G13" si="0">ROUND(B3*LOG(B3)/10000, 2)</f>
         <v>0.48</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2174,27 +2153,23 @@
         <v>2500</v>
       </c>
       <c r="C4">
-        <v>37500</v>
+        <v>52500</v>
       </c>
       <c r="D4">
-        <v>11075100</v>
-      </c>
-      <c r="E4" s="3">
-        <v>295.3</v>
+        <v>25025000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>476.7</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f t="shared" si="0"/>
-        <v>1.9790000000000001</v>
-      </c>
-      <c r="H4" s="5">
-        <f t="shared" si="1"/>
         <v>0.85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2202,27 +2177,23 @@
         <v>3500</v>
       </c>
       <c r="C5">
-        <v>52500</v>
+        <v>73500</v>
       </c>
       <c r="D5">
-        <v>17455400</v>
-      </c>
-      <c r="E5" s="3">
-        <v>332.5</v>
+        <v>21424200</v>
+      </c>
+      <c r="E5" s="2">
+        <v>291.5</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" si="0"/>
-        <v>2.23</v>
-      </c>
-      <c r="H5" s="5">
-        <f t="shared" si="1"/>
         <v>1.24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2230,27 +2201,23 @@
         <v>4500</v>
       </c>
       <c r="C6">
-        <v>67500</v>
+        <v>94500</v>
       </c>
       <c r="D6">
-        <v>21494200</v>
-      </c>
-      <c r="E6" s="3">
-        <v>318.39999999999998</v>
+        <v>33542300</v>
+      </c>
+      <c r="E6" s="2">
+        <v>354.9</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f t="shared" si="0"/>
-        <v>2.11</v>
-      </c>
-      <c r="H6" s="5">
-        <f t="shared" si="1"/>
         <v>1.64</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2258,27 +2225,23 @@
         <v>5500</v>
       </c>
       <c r="C7">
-        <v>82500</v>
+        <v>115500</v>
       </c>
       <c r="D7">
-        <v>28505700</v>
-      </c>
-      <c r="E7" s="3">
-        <v>345.5</v>
+        <v>42812400</v>
+      </c>
+      <c r="E7" s="2">
+        <v>370.7</v>
       </c>
       <c r="F7" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>2.2989999999999999</v>
-      </c>
-      <c r="H7" s="5">
-        <f t="shared" si="1"/>
         <v>2.06</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2286,27 +2249,23 @@
         <v>6500</v>
       </c>
       <c r="C8">
-        <v>97500</v>
+        <v>136500</v>
       </c>
       <c r="D8">
-        <v>36823400</v>
-      </c>
-      <c r="E8" s="3">
-        <v>377.7</v>
+        <v>57053500</v>
+      </c>
+      <c r="E8" s="2">
+        <v>418</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>2.5049999999999999</v>
-      </c>
-      <c r="H8" s="5">
-        <f t="shared" si="1"/>
         <v>2.48</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2314,27 +2273,23 @@
         <v>7500</v>
       </c>
       <c r="C9">
-        <v>112500</v>
+        <v>157500</v>
       </c>
       <c r="D9">
-        <v>45751300</v>
-      </c>
-      <c r="E9" s="3">
-        <v>406.7</v>
+        <v>75162800</v>
+      </c>
+      <c r="E9" s="2">
+        <v>477.2</v>
       </c>
       <c r="F9" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f t="shared" si="0"/>
-        <v>2.6120000000000001</v>
-      </c>
-      <c r="H9" s="5">
-        <f t="shared" si="1"/>
         <v>2.91</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2342,27 +2297,23 @@
         <v>8500</v>
       </c>
       <c r="C10">
-        <v>127500</v>
+        <v>178500</v>
       </c>
       <c r="D10">
-        <v>59938700</v>
-      </c>
-      <c r="E10" s="3">
-        <v>470.1</v>
+        <v>87994600</v>
+      </c>
+      <c r="E10" s="2">
+        <v>493</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>3.0649999999999999</v>
-      </c>
-      <c r="H10" s="5">
-        <f t="shared" si="1"/>
         <v>3.34</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2370,27 +2321,23 @@
         <v>9500</v>
       </c>
       <c r="C11">
-        <v>142500</v>
+        <v>199500</v>
       </c>
       <c r="D11">
-        <v>69711800</v>
-      </c>
-      <c r="E11" s="3">
-        <v>489.2</v>
+        <v>102026400</v>
+      </c>
+      <c r="E11" s="2">
+        <v>511.4</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f t="shared" si="0"/>
-        <v>3.2250000000000001</v>
-      </c>
-      <c r="H11" s="5">
-        <f t="shared" si="1"/>
         <v>3.78</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2398,27 +2345,23 @@
         <v>10500</v>
       </c>
       <c r="C12">
-        <v>157500</v>
+        <v>220500</v>
       </c>
       <c r="D12">
-        <v>85262000</v>
-      </c>
-      <c r="E12" s="3">
-        <v>541.29999999999995</v>
+        <v>124758300</v>
+      </c>
+      <c r="E12" s="2">
+        <v>565.79999999999995</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <f t="shared" si="0"/>
-        <v>3.52</v>
-      </c>
-      <c r="H12" s="5">
-        <f t="shared" si="1"/>
         <v>4.22</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2426,27 +2369,23 @@
         <v>11500</v>
       </c>
       <c r="C13">
-        <v>172500</v>
-      </c>
-      <c r="D13" s="1">
-        <v>102873300</v>
-      </c>
-      <c r="E13" s="3">
-        <v>596.4</v>
+        <v>241500</v>
+      </c>
+      <c r="D13">
+        <v>150307200</v>
+      </c>
+      <c r="E13" s="2">
+        <v>622.4</v>
       </c>
       <c r="F13" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f t="shared" si="0"/>
-        <v>3.657</v>
-      </c>
-      <c r="H13" s="5">
-        <f t="shared" si="1"/>
         <v>4.67</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2454,19 +2393,19 @@
         <v>500</v>
       </c>
       <c r="C14">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="D14">
-        <v>1718000</v>
-      </c>
-      <c r="E14" s="3">
-        <v>190.9</v>
+        <v>2072300</v>
+      </c>
+      <c r="E14" s="2">
+        <v>197.4</v>
       </c>
       <c r="F14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2474,19 +2413,19 @@
         <v>1500</v>
       </c>
       <c r="C15">
-        <v>27000</v>
+        <v>31500</v>
       </c>
       <c r="D15">
-        <v>4529000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>167.7</v>
+        <v>7076000</v>
+      </c>
+      <c r="E15" s="2">
+        <v>224.6</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2494,13 +2433,13 @@
         <v>2500</v>
       </c>
       <c r="C16">
-        <v>45000</v>
+        <v>52500</v>
       </c>
       <c r="D16">
-        <v>6714100</v>
-      </c>
-      <c r="E16" s="3">
-        <v>149.19999999999999</v>
+        <v>7970200</v>
+      </c>
+      <c r="E16" s="2">
+        <v>151.80000000000001</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
@@ -2514,13 +2453,13 @@
         <v>3500</v>
       </c>
       <c r="C17">
-        <v>63000</v>
+        <v>73500</v>
       </c>
       <c r="D17">
-        <v>9392600</v>
-      </c>
-      <c r="E17" s="3">
-        <v>149.1</v>
+        <v>11658000</v>
+      </c>
+      <c r="E17" s="2">
+        <v>158.6</v>
       </c>
       <c r="F17" t="s">
         <v>6</v>
@@ -2534,13 +2473,13 @@
         <v>4500</v>
       </c>
       <c r="C18">
-        <v>81000</v>
+        <v>94500</v>
       </c>
       <c r="D18">
-        <v>12224300</v>
-      </c>
-      <c r="E18" s="3">
-        <v>150.9</v>
+        <v>15380900</v>
+      </c>
+      <c r="E18" s="2">
+        <v>162.80000000000001</v>
       </c>
       <c r="F18" t="s">
         <v>6</v>
@@ -2554,13 +2493,13 @@
         <v>5500</v>
       </c>
       <c r="C19">
-        <v>99000</v>
+        <v>115500</v>
       </c>
       <c r="D19">
-        <v>14876000</v>
-      </c>
-      <c r="E19" s="3">
-        <v>150.30000000000001</v>
+        <v>17948900</v>
+      </c>
+      <c r="E19" s="2">
+        <v>155.4</v>
       </c>
       <c r="F19" t="s">
         <v>6</v>
@@ -2574,13 +2513,13 @@
         <v>6500</v>
       </c>
       <c r="C20">
-        <v>117000</v>
+        <v>136500</v>
       </c>
       <c r="D20">
-        <v>17644100</v>
-      </c>
-      <c r="E20" s="3">
-        <v>150.80000000000001</v>
+        <v>21269900</v>
+      </c>
+      <c r="E20" s="2">
+        <v>155.80000000000001</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
@@ -2594,13 +2533,13 @@
         <v>7500</v>
       </c>
       <c r="C21">
-        <v>135000</v>
+        <v>157500</v>
       </c>
       <c r="D21">
-        <v>21020500</v>
-      </c>
-      <c r="E21" s="3">
-        <v>155.69999999999999</v>
+        <v>27477200</v>
+      </c>
+      <c r="E21" s="2">
+        <v>174.5</v>
       </c>
       <c r="F21" t="s">
         <v>6</v>
@@ -2614,13 +2553,13 @@
         <v>8500</v>
       </c>
       <c r="C22">
-        <v>153000</v>
+        <v>178500</v>
       </c>
       <c r="D22">
-        <v>23471500</v>
-      </c>
-      <c r="E22" s="3">
-        <v>153.4</v>
+        <v>28441700</v>
+      </c>
+      <c r="E22" s="2">
+        <v>159.30000000000001</v>
       </c>
       <c r="F22" t="s">
         <v>6</v>
@@ -2634,13 +2573,13 @@
         <v>9500</v>
       </c>
       <c r="C23">
-        <v>171000</v>
+        <v>199500</v>
       </c>
       <c r="D23">
-        <v>25938600</v>
-      </c>
-      <c r="E23" s="3">
-        <v>151.69999999999999</v>
+        <v>33290500</v>
+      </c>
+      <c r="E23" s="2">
+        <v>166.9</v>
       </c>
       <c r="F23" t="s">
         <v>6</v>
@@ -2654,13 +2593,13 @@
         <v>10500</v>
       </c>
       <c r="C24">
-        <v>189000</v>
+        <v>220500</v>
       </c>
       <c r="D24">
-        <v>29077000</v>
-      </c>
-      <c r="E24" s="3">
-        <v>153.80000000000001</v>
+        <v>36990700</v>
+      </c>
+      <c r="E24" s="2">
+        <v>167.8</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
@@ -2674,13 +2613,13 @@
         <v>11500</v>
       </c>
       <c r="C25">
-        <v>207000</v>
+        <v>241500</v>
       </c>
       <c r="D25">
-        <v>33755200</v>
-      </c>
-      <c r="E25" s="3">
-        <v>163.1</v>
+        <v>40174700</v>
+      </c>
+      <c r="E25" s="2">
+        <v>166.4</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
@@ -2700,7 +2639,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2712,37 +2651,33 @@
     <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.9296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2750,27 +2685,23 @@
         <v>5000</v>
       </c>
       <c r="C2">
-        <v>75000</v>
+        <v>130000</v>
       </c>
       <c r="D2">
-        <v>21586600</v>
-      </c>
-      <c r="E2" s="3">
-        <v>287.8</v>
+        <v>46615700</v>
+      </c>
+      <c r="E2" s="2">
+        <v>358.6</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4">
-        <f>ROUND(E2/E14, 3)</f>
-        <v>2.13</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="G2" s="3">
         <f>ROUND(B2*LOG(B2)/100000, 2)</f>
         <v>0.18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2778,27 +2709,23 @@
         <v>15000</v>
       </c>
       <c r="C3">
-        <v>225000</v>
+        <v>390000</v>
       </c>
       <c r="D3">
-        <v>159778700</v>
-      </c>
-      <c r="E3" s="3">
-        <v>710.1</v>
+        <v>310267800</v>
+      </c>
+      <c r="E3" s="2">
+        <v>795.6</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4">
-        <f t="shared" ref="G3:G13" si="0">ROUND(E3/E15, 3)</f>
-        <v>4.375</v>
-      </c>
-      <c r="H3" s="5">
-        <f t="shared" ref="H3:H13" si="1">ROUND(B3*LOG(B3)/100000, 2)</f>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G13" si="0">ROUND(B3*LOG(B3)/100000, 2)</f>
         <v>0.63</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2806,27 +2733,23 @@
         <v>25000</v>
       </c>
       <c r="C4">
-        <v>375000</v>
+        <v>650000</v>
       </c>
       <c r="D4">
-        <v>417757100</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1114</v>
+        <v>848557500</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1305.5</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f t="shared" si="0"/>
-        <v>6.4770000000000003</v>
-      </c>
-      <c r="H4" s="5">
-        <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2834,27 +2757,23 @@
         <v>35000</v>
       </c>
       <c r="C5">
-        <v>525000</v>
+        <v>910000</v>
       </c>
       <c r="D5">
-        <v>820235400</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1562.4</v>
+        <v>1607214200</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1766.2</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" si="0"/>
-        <v>9.0419999999999998</v>
-      </c>
-      <c r="H5" s="5">
-        <f t="shared" si="1"/>
         <v>1.59</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2862,27 +2781,23 @@
         <v>45000</v>
       </c>
       <c r="C6">
-        <v>675000</v>
+        <v>1170000</v>
       </c>
       <c r="D6">
-        <v>1265933700</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1875.5</v>
+        <v>2576676200</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2202.3000000000002</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f t="shared" si="0"/>
-        <v>10.465999999999999</v>
-      </c>
-      <c r="H6" s="5">
-        <f t="shared" si="1"/>
         <v>2.09</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2890,27 +2805,23 @@
         <v>55000</v>
       </c>
       <c r="C7">
-        <v>825000</v>
+        <v>1430000</v>
       </c>
       <c r="D7">
-        <v>1873753100</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2271.1999999999998</v>
+        <v>3864193900</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2702.2</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>12.417999999999999</v>
-      </c>
-      <c r="H7" s="5">
-        <f t="shared" si="1"/>
         <v>2.61</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2918,27 +2829,23 @@
         <v>65000</v>
       </c>
       <c r="C8">
-        <v>975000</v>
+        <v>1690000</v>
       </c>
       <c r="D8">
-        <v>2650288900</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2718.2</v>
+        <v>5447447900</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3223.3</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>14.497</v>
-      </c>
-      <c r="H8" s="5">
-        <f t="shared" si="1"/>
         <v>3.13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2946,27 +2853,23 @@
         <v>75000</v>
       </c>
       <c r="C9">
-        <v>1125000</v>
+        <v>1950000</v>
       </c>
       <c r="D9">
-        <v>3529236000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3137.1</v>
+        <v>7258316300</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3722.2</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f t="shared" si="0"/>
-        <v>16.373000000000001</v>
-      </c>
-      <c r="H9" s="5">
-        <f t="shared" si="1"/>
         <v>3.66</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2974,27 +2877,23 @@
         <v>85000</v>
       </c>
       <c r="C10">
-        <v>1275000</v>
+        <v>2210000</v>
       </c>
       <c r="D10">
-        <v>4772866200</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3743.4</v>
+        <v>9779023300</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4424.8999999999996</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>19.315999999999999</v>
-      </c>
-      <c r="H10" s="5">
-        <f t="shared" si="1"/>
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3002,27 +2901,23 @@
         <v>95000</v>
       </c>
       <c r="C11">
-        <v>1425000</v>
+        <v>2470000</v>
       </c>
       <c r="D11">
-        <v>6120142300</v>
-      </c>
-      <c r="E11" s="3">
-        <v>4294.8</v>
+        <v>12424628200</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5030.2</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f t="shared" si="0"/>
-        <v>21.779</v>
-      </c>
-      <c r="H11" s="5">
-        <f t="shared" si="1"/>
         <v>4.7300000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3030,27 +2925,23 @@
         <v>105000</v>
       </c>
       <c r="C12">
-        <v>1575000</v>
+        <v>2730000</v>
       </c>
       <c r="D12">
-        <v>7711560800</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4896.2</v>
+        <v>15502345300</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5678.5</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <f t="shared" si="0"/>
-        <v>24.53</v>
-      </c>
-      <c r="H12" s="5">
-        <f t="shared" si="1"/>
         <v>5.27</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3058,27 +2949,23 @@
         <v>115000</v>
       </c>
       <c r="C13">
-        <v>1725000</v>
+        <v>2990000</v>
       </c>
       <c r="D13">
-        <v>9548554000</v>
-      </c>
-      <c r="E13" s="3">
-        <v>5535.4</v>
+        <v>19348309600</v>
+      </c>
+      <c r="E13" s="2">
+        <v>6471</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f t="shared" si="0"/>
-        <v>27.361999999999998</v>
-      </c>
-      <c r="H13" s="5">
-        <f t="shared" si="1"/>
         <v>5.82</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3086,19 +2973,19 @@
         <v>5000</v>
       </c>
       <c r="C14">
-        <v>90000</v>
+        <v>155000</v>
       </c>
       <c r="D14">
-        <v>12159900</v>
-      </c>
-      <c r="E14" s="3">
-        <v>135.1</v>
+        <v>25500600</v>
+      </c>
+      <c r="E14" s="2">
+        <v>164.5</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3106,19 +2993,19 @@
         <v>15000</v>
       </c>
       <c r="C15">
-        <v>270000</v>
+        <v>465000</v>
       </c>
       <c r="D15">
-        <v>43818400</v>
-      </c>
-      <c r="E15" s="3">
-        <v>162.30000000000001</v>
+        <v>79197500</v>
+      </c>
+      <c r="E15" s="2">
+        <v>170.3</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3126,13 +3013,13 @@
         <v>25000</v>
       </c>
       <c r="C16">
-        <v>450000</v>
+        <v>775000</v>
       </c>
       <c r="D16">
-        <v>77415700</v>
-      </c>
-      <c r="E16" s="3">
-        <v>172</v>
+        <v>145400200</v>
+      </c>
+      <c r="E16" s="2">
+        <v>187.6</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -3146,13 +3033,13 @@
         <v>35000</v>
       </c>
       <c r="C17">
-        <v>630000</v>
+        <v>1085000</v>
       </c>
       <c r="D17">
-        <v>108845800</v>
-      </c>
-      <c r="E17" s="3">
-        <v>172.8</v>
+        <v>226951000</v>
+      </c>
+      <c r="E17" s="2">
+        <v>209.2</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -3166,13 +3053,13 @@
         <v>45000</v>
       </c>
       <c r="C18">
-        <v>810000</v>
+        <v>1395000</v>
       </c>
       <c r="D18">
-        <v>145117000</v>
-      </c>
-      <c r="E18" s="3">
-        <v>179.2</v>
+        <v>295969800</v>
+      </c>
+      <c r="E18" s="2">
+        <v>212.2</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
@@ -3186,13 +3073,13 @@
         <v>55000</v>
       </c>
       <c r="C19">
-        <v>990000</v>
+        <v>1705000</v>
       </c>
       <c r="D19">
-        <v>181065300</v>
-      </c>
-      <c r="E19" s="3">
-        <v>182.9</v>
+        <v>369983200</v>
+      </c>
+      <c r="E19" s="2">
+        <v>217</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
@@ -3206,13 +3093,13 @@
         <v>65000</v>
       </c>
       <c r="C20">
-        <v>1170000</v>
+        <v>2015000</v>
       </c>
       <c r="D20">
-        <v>219394800</v>
-      </c>
-      <c r="E20" s="3">
-        <v>187.5</v>
+        <v>448251200</v>
+      </c>
+      <c r="E20" s="2">
+        <v>222.5</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -3226,13 +3113,13 @@
         <v>75000</v>
       </c>
       <c r="C21">
-        <v>1350000</v>
+        <v>2325000</v>
       </c>
       <c r="D21">
-        <v>258666500</v>
-      </c>
-      <c r="E21" s="3">
-        <v>191.6</v>
+        <v>528304300</v>
+      </c>
+      <c r="E21" s="2">
+        <v>227.2</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -3246,13 +3133,13 @@
         <v>85000</v>
       </c>
       <c r="C22">
-        <v>1530000</v>
+        <v>2635000</v>
       </c>
       <c r="D22">
-        <v>296551900</v>
-      </c>
-      <c r="E22" s="3">
-        <v>193.8</v>
+        <v>598749500</v>
+      </c>
+      <c r="E22" s="2">
+        <v>227.2</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
@@ -3266,13 +3153,13 @@
         <v>95000</v>
       </c>
       <c r="C23">
-        <v>1710000</v>
+        <v>2945000</v>
       </c>
       <c r="D23">
-        <v>337168300</v>
-      </c>
-      <c r="E23" s="3">
-        <v>197.2</v>
+        <v>687876900</v>
+      </c>
+      <c r="E23" s="2">
+        <v>233.6</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -3286,13 +3173,13 @@
         <v>105000</v>
       </c>
       <c r="C24">
-        <v>1890000</v>
+        <v>3255000</v>
       </c>
       <c r="D24">
-        <v>377279800</v>
-      </c>
-      <c r="E24" s="3">
-        <v>199.6</v>
+        <v>786351300</v>
+      </c>
+      <c r="E24" s="2">
+        <v>241.6</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
@@ -3306,13 +3193,13 @@
         <v>115000</v>
       </c>
       <c r="C25">
-        <v>2070000</v>
+        <v>3565000</v>
       </c>
       <c r="D25">
-        <v>418787000</v>
-      </c>
-      <c r="E25" s="3">
-        <v>202.3</v>
+        <v>864039100</v>
+      </c>
+      <c r="E25" s="2">
+        <v>242.4</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>

--- a/dev-topics-codingexams/dev-topics-amazon-rangeconsolidator/analytics/raw_data/test_run.xlsx
+++ b/dev-topics-codingexams/dev-topics-amazon-rangeconsolidator/analytics/raw_data/test_run.xlsx
@@ -4,18 +4,39 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="38" windowWidth="27390" windowHeight="11768"/>
+    <workbookView xWindow="420" yWindow="38" windowWidth="27390" windowHeight="11768" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test_run" sheetId="1" r:id="rId1"/>
     <sheet name="test_10x_run" sheetId="3" r:id="rId2"/>
+    <sheet name="Run_Log" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="test_run" localSheetId="2">Run_Log!$A$1:$F$87</definedName>
+  </definedNames>
   <calcPr calcId="145621" iterate="1"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="test_run" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="D:\GitHub\DemoDev-master\dev-topics-codingexams\dev-topics-amazon-rangeconsolidator\analytics\raw_data\test_run.csv" tab="0" comma="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="12">
   <si>
     <t>case</t>
   </si>
@@ -32,28 +53,25 @@
     <t>algo</t>
   </si>
   <si>
-    <t xml:space="preserve"> L2R</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>u_nano</t>
-  </si>
-  <si>
-    <t>nLogn/10K</t>
   </si>
   <si>
     <t>nLogn/100K</t>
   </si>
   <si>
-    <t xml:space="preserve"> L2R10x</t>
+    <t>Leet-Code</t>
   </si>
   <si>
-    <t xml:space="preserve"> R2L10x</t>
+    <t>Right-to-left</t>
+  </si>
+  <si>
+    <t>Sort</t>
+  </si>
+  <si>
+    <t>LeetCode</t>
+  </si>
+  <si>
+    <t>Left-to-right</t>
   </si>
 </sst>
 </file>
@@ -541,13 +559,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -651,7 +673,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> L2R</c:v>
+                  <c:v>Leet-Code</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -708,40 +730,40 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>522.1</c:v>
+                  <c:v>437.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>417</c:v>
+                  <c:v>284.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>476.7</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>291.5</c:v>
+                  <c:v>137.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>354.9</c:v>
+                  <c:v>132.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>370.7</c:v>
+                  <c:v>137.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>418</c:v>
+                  <c:v>142.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>477.2</c:v>
+                  <c:v>143.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>493</c:v>
+                  <c:v>162.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>511.4</c:v>
+                  <c:v>148.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>565.79999999999995</c:v>
+                  <c:v>149.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>622.4</c:v>
+                  <c:v>151.80000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -757,7 +779,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> R2L</c:v>
+                  <c:v>Right-to-left</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -814,40 +836,252 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>197.4</c:v>
+                  <c:v>901.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>224.6</c:v>
+                  <c:v>187.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>151.80000000000001</c:v>
+                  <c:v>161.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>158.6</c:v>
+                  <c:v>137.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>162.80000000000001</c:v>
+                  <c:v>137.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>155.4</c:v>
+                  <c:v>144.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>155.80000000000001</c:v>
+                  <c:v>144.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>174.5</c:v>
+                  <c:v>147.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>159.30000000000001</c:v>
+                  <c:v>144.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>166.9</c:v>
+                  <c:v>152.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>167.8</c:v>
+                  <c:v>148.9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>166.4</c:v>
+                  <c:v>152.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test_run!$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Left-to-right</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>test_run!$B$26:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>test_run!$E$26:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>173.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>233.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>274.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>320.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>293.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>339.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>363.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>392.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>433.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>488.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>530.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>578.20000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test_run!$F$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>test_run!$B$38:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>test_run!$E$38:$E$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>76.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>138.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>141.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>136.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>141.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>142.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>144.69999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -862,131 +1096,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="126870272"/>
-        <c:axId val="126872192"/>
-      </c:scatterChart>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>test_run!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nLogn/10K</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>test_run!$B$2:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>test_run!$G$2:$G$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.64</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.48</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.91</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.34</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.78</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.67</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="149549440"/>
-        <c:axId val="149753856"/>
+        <c:axId val="135652480"/>
+        <c:axId val="135654400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126870272"/>
+        <c:axId val="135652480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12000"/>
@@ -1022,17 +1136,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126872192"/>
+        <c:crossAx val="135654400"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
         <c:minorUnit val="500"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126872192"/>
+        <c:axId val="135654400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="650"/>
+          <c:max val="950"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1075,63 +1189,10 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126870272"/>
+        <c:crossAx val="135652480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="100"/>
         <c:minorUnit val="25"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="149753856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="5"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" vert="wordArtVert"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Log	</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149549440"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.5"/>
-        <c:minorUnit val="0.25"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="149549440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149753856"/>
-        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1188,7 +1249,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1199,7 +1260,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> L2R10x</c:v>
+                  <c:v>Left-to-right</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1253,48 +1314,48 @@
             <c:numRef>
               <c:f>test_10x_run!$E$2:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>358.6</c:v>
+                  <c:v>385.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>795.6</c:v>
+                  <c:v>786</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1305.5</c:v>
+                  <c:v>1191.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1766.2</c:v>
+                  <c:v>1741</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2202.3000000000002</c:v>
+                  <c:v>2086.3000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2702.2</c:v>
+                  <c:v>2555.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3223.3</c:v>
+                  <c:v>3000.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3722.2</c:v>
+                  <c:v>3213.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4424.8999999999996</c:v>
+                  <c:v>4232.8999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5030.2</c:v>
+                  <c:v>4893.1000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5678.5</c:v>
+                  <c:v>5393.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6471</c:v>
+                  <c:v>6093.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1305,7 +1366,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> R2L10x</c:v>
+                  <c:v>LeetCode</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1359,48 +1420,154 @@
             <c:numRef>
               <c:f>test_10x_run!$E$14:$E$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>164.5</c:v>
+                  <c:v>144.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>170.3</c:v>
+                  <c:v>153.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>187.6</c:v>
+                  <c:v>156.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>209.2</c:v>
+                  <c:v>162.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>212.2</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>217</c:v>
+                  <c:v>166.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>222.5</c:v>
+                  <c:v>172.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>227.2</c:v>
+                  <c:v>179.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>227.2</c:v>
+                  <c:v>175.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>233.6</c:v>
+                  <c:v>176.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>241.6</c:v>
+                  <c:v>178.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>242.4</c:v>
+                  <c:v>183.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test_10x_run!$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Right-to-left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>test_10x_run!$B$26:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>115000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>test_10x_run!$E$26:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>149.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>164.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>168.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>182.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>185.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>190.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>191.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>192.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>197.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1410,15 +1577,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="127227776"/>
-        <c:axId val="127234048"/>
+        <c:axId val="136009984"/>
+        <c:axId val="136016256"/>
       </c:scatterChart>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>test_10x_run!$G$1</c:f>
@@ -1520,7 +1687,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1530,11 +1697,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="127246336"/>
-        <c:axId val="127235968"/>
+        <c:axId val="152417024"/>
+        <c:axId val="163329920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="127227776"/>
+        <c:axId val="136009984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120000"/>
@@ -1570,17 +1737,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127234048"/>
+        <c:crossAx val="136016256"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10000"/>
         <c:minorUnit val="5000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="127234048"/>
+        <c:axId val="136016256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6500"/>
+          <c:max val="6250"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1623,52 +1790,31 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127227776"/>
+        <c:crossAx val="136009984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1000"/>
         <c:minorUnit val="250"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="127235968"/>
+        <c:axId val="163329920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" vert="wordArtVert"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Log</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127246336"/>
+        <c:crossAx val="152417024"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.5"/>
         <c:minorUnit val="0.25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="127246336"/>
+        <c:axId val="152417024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1678,8 +1824,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127235968"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="163329920"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -1704,16 +1849,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>642939</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>14289</xdr:colOff>
+      <xdr:colOff>9527</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1740,15 +1885,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>642939</xdr:colOff>
+      <xdr:colOff>633413</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>4763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>14289</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1770,6 +1915,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="test_run" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2059,9 +2208,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2070,11 +2219,10 @@
     <col min="3" max="3" width="6.73046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2088,16 +2236,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2108,20 +2253,16 @@
         <v>10500</v>
       </c>
       <c r="D2">
-        <v>5481600</v>
+        <v>4590100</v>
       </c>
       <c r="E2" s="2">
-        <v>522.1</v>
+        <v>437.2</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3">
-        <f>ROUND(B2*LOG(B2)/10000, 2)</f>
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2132,20 +2273,16 @@
         <v>31500</v>
       </c>
       <c r="D3">
-        <v>13135100</v>
+        <v>8954300</v>
       </c>
       <c r="E3" s="2">
-        <v>417</v>
+        <v>284.3</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3">
-        <f t="shared" ref="G3:G13" si="0">ROUND(B3*LOG(B3)/10000, 2)</f>
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2156,20 +2293,16 @@
         <v>52500</v>
       </c>
       <c r="D4">
-        <v>25025000</v>
+        <v>13492300</v>
       </c>
       <c r="E4" s="2">
-        <v>476.7</v>
+        <v>257</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="3">
-        <f t="shared" si="0"/>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2180,20 +2313,16 @@
         <v>73500</v>
       </c>
       <c r="D5">
-        <v>21424200</v>
+        <v>10075600</v>
       </c>
       <c r="E5" s="2">
-        <v>291.5</v>
+        <v>137.1</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="3">
-        <f t="shared" si="0"/>
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2204,20 +2333,16 @@
         <v>94500</v>
       </c>
       <c r="D6">
-        <v>33542300</v>
+        <v>12560800</v>
       </c>
       <c r="E6" s="2">
-        <v>354.9</v>
+        <v>132.9</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="3">
-        <f t="shared" si="0"/>
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2228,20 +2353,16 @@
         <v>115500</v>
       </c>
       <c r="D7">
-        <v>42812400</v>
+        <v>15923700</v>
       </c>
       <c r="E7" s="2">
-        <v>370.7</v>
+        <v>137.9</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" si="0"/>
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2252,20 +2373,16 @@
         <v>136500</v>
       </c>
       <c r="D8">
-        <v>57053500</v>
+        <v>19432800</v>
       </c>
       <c r="E8" s="2">
-        <v>418</v>
+        <v>142.4</v>
       </c>
       <c r="F8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="0"/>
-        <v>2.48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2276,20 +2393,16 @@
         <v>157500</v>
       </c>
       <c r="D9">
-        <v>75162800</v>
+        <v>22614800</v>
       </c>
       <c r="E9" s="2">
-        <v>477.2</v>
+        <v>143.6</v>
       </c>
       <c r="F9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="0"/>
-        <v>2.91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2300,20 +2413,16 @@
         <v>178500</v>
       </c>
       <c r="D10">
-        <v>87994600</v>
+        <v>29037600</v>
       </c>
       <c r="E10" s="2">
-        <v>493</v>
+        <v>162.69999999999999</v>
       </c>
       <c r="F10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" si="0"/>
-        <v>3.34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2324,20 +2433,16 @@
         <v>199500</v>
       </c>
       <c r="D11">
-        <v>102026400</v>
+        <v>29642600</v>
       </c>
       <c r="E11" s="2">
-        <v>511.4</v>
+        <v>148.6</v>
       </c>
       <c r="F11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="0"/>
-        <v>3.78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2348,20 +2453,16 @@
         <v>220500</v>
       </c>
       <c r="D12">
-        <v>124758300</v>
+        <v>33032800</v>
       </c>
       <c r="E12" s="2">
-        <v>565.79999999999995</v>
+        <v>149.80000000000001</v>
       </c>
       <c r="F12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" si="0"/>
-        <v>4.22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2372,22 +2473,18 @@
         <v>241500</v>
       </c>
       <c r="D13">
-        <v>150307200</v>
+        <v>36671700</v>
       </c>
       <c r="E13" s="2">
-        <v>622.4</v>
+        <v>151.80000000000001</v>
       </c>
       <c r="F13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="3">
-        <f t="shared" si="0"/>
-        <v>4.67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B14">
         <v>500</v>
@@ -2396,18 +2493,18 @@
         <v>10500</v>
       </c>
       <c r="D14">
-        <v>2072300</v>
+        <v>9468500</v>
       </c>
       <c r="E14" s="2">
-        <v>197.4</v>
+        <v>901.8</v>
       </c>
       <c r="F14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B15">
         <v>1500</v>
@@ -2416,18 +2513,18 @@
         <v>31500</v>
       </c>
       <c r="D15">
-        <v>7076000</v>
+        <v>5892600</v>
       </c>
       <c r="E15" s="2">
-        <v>224.6</v>
+        <v>187.1</v>
       </c>
       <c r="F15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B16">
         <v>2500</v>
@@ -2436,18 +2533,18 @@
         <v>52500</v>
       </c>
       <c r="D16">
-        <v>7970200</v>
+        <v>8502000</v>
       </c>
       <c r="E16" s="2">
-        <v>151.80000000000001</v>
+        <v>161.9</v>
       </c>
       <c r="F16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>3500</v>
@@ -2456,18 +2553,18 @@
         <v>73500</v>
       </c>
       <c r="D17">
-        <v>11658000</v>
+        <v>10079300</v>
       </c>
       <c r="E17" s="2">
-        <v>158.6</v>
+        <v>137.1</v>
       </c>
       <c r="F17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B18">
         <v>4500</v>
@@ -2476,18 +2573,18 @@
         <v>94500</v>
       </c>
       <c r="D18">
-        <v>15380900</v>
+        <v>13009000</v>
       </c>
       <c r="E18" s="2">
-        <v>162.80000000000001</v>
+        <v>137.69999999999999</v>
       </c>
       <c r="F18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>5500</v>
@@ -2496,18 +2593,18 @@
         <v>115500</v>
       </c>
       <c r="D19">
-        <v>17948900</v>
+        <v>16705000</v>
       </c>
       <c r="E19" s="2">
-        <v>155.4</v>
+        <v>144.6</v>
       </c>
       <c r="F19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B20">
         <v>6500</v>
@@ -2516,18 +2613,18 @@
         <v>136500</v>
       </c>
       <c r="D20">
-        <v>21269900</v>
+        <v>19672900</v>
       </c>
       <c r="E20" s="2">
-        <v>155.80000000000001</v>
+        <v>144.1</v>
       </c>
       <c r="F20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B21">
         <v>7500</v>
@@ -2536,18 +2633,18 @@
         <v>157500</v>
       </c>
       <c r="D21">
-        <v>27477200</v>
+        <v>23219300</v>
       </c>
       <c r="E21" s="2">
-        <v>174.5</v>
+        <v>147.4</v>
       </c>
       <c r="F21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B22">
         <v>8500</v>
@@ -2556,18 +2653,18 @@
         <v>178500</v>
       </c>
       <c r="D22">
-        <v>28441700</v>
+        <v>25827400</v>
       </c>
       <c r="E22" s="2">
-        <v>159.30000000000001</v>
+        <v>144.69999999999999</v>
       </c>
       <c r="F22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B23">
         <v>9500</v>
@@ -2576,18 +2673,18 @@
         <v>199500</v>
       </c>
       <c r="D23">
-        <v>33290500</v>
+        <v>30447400</v>
       </c>
       <c r="E23" s="2">
-        <v>166.9</v>
+        <v>152.6</v>
       </c>
       <c r="F23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>10500</v>
@@ -2596,18 +2693,18 @@
         <v>220500</v>
       </c>
       <c r="D24">
-        <v>36990700</v>
+        <v>32843000</v>
       </c>
       <c r="E24" s="2">
-        <v>167.8</v>
+        <v>148.9</v>
       </c>
       <c r="F24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>11500</v>
@@ -2616,18 +2713,493 @@
         <v>241500</v>
       </c>
       <c r="D25">
-        <v>40174700</v>
+        <v>36732900</v>
       </c>
       <c r="E25" s="2">
-        <v>166.4</v>
+        <v>152.1</v>
       </c>
       <c r="F25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>500</v>
+      </c>
+      <c r="C26">
+        <v>10500</v>
+      </c>
+      <c r="D26">
+        <v>1826000</v>
+      </c>
+      <c r="E26">
+        <v>173.9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>1500</v>
+      </c>
+      <c r="C27">
+        <v>31500</v>
+      </c>
+      <c r="D27">
+        <v>7342000</v>
+      </c>
+      <c r="E27">
+        <v>233.1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>2500</v>
+      </c>
+      <c r="C28">
+        <v>52500</v>
+      </c>
+      <c r="D28">
+        <v>14406300</v>
+      </c>
+      <c r="E28">
+        <v>274.39999999999998</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>3500</v>
+      </c>
+      <c r="C29">
+        <v>73500</v>
+      </c>
+      <c r="D29">
+        <v>23539100</v>
+      </c>
+      <c r="E29">
+        <v>320.3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>4500</v>
+      </c>
+      <c r="C30">
+        <v>94500</v>
+      </c>
+      <c r="D30">
+        <v>27746300</v>
+      </c>
+      <c r="E30">
+        <v>293.60000000000002</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+      <c r="B31">
+        <v>5500</v>
+      </c>
+      <c r="C31">
+        <v>115500</v>
+      </c>
+      <c r="D31">
+        <v>39166300</v>
+      </c>
+      <c r="E31">
+        <v>339.1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32">
         <v>7</v>
+      </c>
+      <c r="B32">
+        <v>6500</v>
+      </c>
+      <c r="C32">
+        <v>136500</v>
+      </c>
+      <c r="D32">
+        <v>49571800</v>
+      </c>
+      <c r="E32">
+        <v>363.2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>7500</v>
+      </c>
+      <c r="C33">
+        <v>157500</v>
+      </c>
+      <c r="D33">
+        <v>61783600</v>
+      </c>
+      <c r="E33">
+        <v>392.3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>8500</v>
+      </c>
+      <c r="C34">
+        <v>178500</v>
+      </c>
+      <c r="D34">
+        <v>77452900</v>
+      </c>
+      <c r="E34">
+        <v>433.9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>9500</v>
+      </c>
+      <c r="C35">
+        <v>199500</v>
+      </c>
+      <c r="D35">
+        <v>97445300</v>
+      </c>
+      <c r="E35">
+        <v>488.4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <v>10500</v>
+      </c>
+      <c r="C36">
+        <v>220500</v>
+      </c>
+      <c r="D36">
+        <v>117035400</v>
+      </c>
+      <c r="E36">
+        <v>530.79999999999995</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>11500</v>
+      </c>
+      <c r="C37">
+        <v>241500</v>
+      </c>
+      <c r="D37">
+        <v>139634500</v>
+      </c>
+      <c r="E37">
+        <v>578.20000000000005</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>500</v>
+      </c>
+      <c r="C38">
+        <v>10500</v>
+      </c>
+      <c r="D38">
+        <v>800300</v>
+      </c>
+      <c r="E38">
+        <v>76.2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>1500</v>
+      </c>
+      <c r="C39">
+        <v>31500</v>
+      </c>
+      <c r="D39">
+        <v>3476400</v>
+      </c>
+      <c r="E39">
+        <v>110.4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>2500</v>
+      </c>
+      <c r="C40">
+        <v>52500</v>
+      </c>
+      <c r="D40">
+        <v>7492100</v>
+      </c>
+      <c r="E40">
+        <v>142.69999999999999</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>3500</v>
+      </c>
+      <c r="C41">
+        <v>73500</v>
+      </c>
+      <c r="D41">
+        <v>10166000</v>
+      </c>
+      <c r="E41">
+        <v>138.30000000000001</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>4500</v>
+      </c>
+      <c r="C42">
+        <v>94500</v>
+      </c>
+      <c r="D42">
+        <v>13340600</v>
+      </c>
+      <c r="E42">
+        <v>141.19999999999999</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>5500</v>
+      </c>
+      <c r="C43">
+        <v>115500</v>
+      </c>
+      <c r="D43">
+        <v>14855200</v>
+      </c>
+      <c r="E43">
+        <v>128.6</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>6500</v>
+      </c>
+      <c r="C44">
+        <v>136500</v>
+      </c>
+      <c r="D44">
+        <v>18444300</v>
+      </c>
+      <c r="E44">
+        <v>135.1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>7500</v>
+      </c>
+      <c r="C45">
+        <v>157500</v>
+      </c>
+      <c r="D45">
+        <v>21207500</v>
+      </c>
+      <c r="E45">
+        <v>134.69999999999999</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>8500</v>
+      </c>
+      <c r="C46">
+        <v>178500</v>
+      </c>
+      <c r="D46">
+        <v>24394700</v>
+      </c>
+      <c r="E46">
+        <v>136.69999999999999</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>9500</v>
+      </c>
+      <c r="C47">
+        <v>199500</v>
+      </c>
+      <c r="D47">
+        <v>28161900</v>
+      </c>
+      <c r="E47">
+        <v>141.19999999999999</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>11</v>
+      </c>
+      <c r="B48">
+        <v>10500</v>
+      </c>
+      <c r="C48">
+        <v>220500</v>
+      </c>
+      <c r="D48">
+        <v>31444000</v>
+      </c>
+      <c r="E48">
+        <v>142.6</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>12</v>
+      </c>
+      <c r="B49">
+        <v>11500</v>
+      </c>
+      <c r="C49">
+        <v>241500</v>
+      </c>
+      <c r="D49">
+        <v>34954100</v>
+      </c>
+      <c r="E49">
+        <v>144.69999999999999</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2639,9 +3211,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2650,7 +3222,7 @@
     <col min="3" max="3" width="7.73046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2668,13 +3240,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -2685,13 +3257,13 @@
         <v>5000</v>
       </c>
       <c r="C2">
-        <v>130000</v>
+        <v>35000</v>
       </c>
       <c r="D2">
-        <v>46615700</v>
-      </c>
-      <c r="E2" s="2">
-        <v>358.6</v>
+        <v>13496800</v>
+      </c>
+      <c r="E2">
+        <v>385.6</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -2709,13 +3281,13 @@
         <v>15000</v>
       </c>
       <c r="C3">
-        <v>390000</v>
+        <v>105000</v>
       </c>
       <c r="D3">
-        <v>310267800</v>
-      </c>
-      <c r="E3" s="2">
-        <v>795.6</v>
+        <v>82525000</v>
+      </c>
+      <c r="E3">
+        <v>786</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -2733,13 +3305,13 @@
         <v>25000</v>
       </c>
       <c r="C4">
-        <v>650000</v>
+        <v>175000</v>
       </c>
       <c r="D4">
-        <v>848557500</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1305.5</v>
+        <v>208459000</v>
+      </c>
+      <c r="E4">
+        <v>1191.2</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -2757,13 +3329,13 @@
         <v>35000</v>
       </c>
       <c r="C5">
-        <v>910000</v>
+        <v>245000</v>
       </c>
       <c r="D5">
-        <v>1607214200</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1766.2</v>
+        <v>426537300</v>
+      </c>
+      <c r="E5">
+        <v>1741</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -2781,13 +3353,13 @@
         <v>45000</v>
       </c>
       <c r="C6">
-        <v>1170000</v>
+        <v>315000</v>
       </c>
       <c r="D6">
-        <v>2576676200</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2202.3000000000002</v>
+        <v>657184000</v>
+      </c>
+      <c r="E6">
+        <v>2086.3000000000002</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -2805,13 +3377,13 @@
         <v>55000</v>
       </c>
       <c r="C7">
-        <v>1430000</v>
+        <v>385000</v>
       </c>
       <c r="D7">
-        <v>3864193900</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2702.2</v>
+        <v>983817100</v>
+      </c>
+      <c r="E7">
+        <v>2555.4</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -2829,13 +3401,13 @@
         <v>65000</v>
       </c>
       <c r="C8">
-        <v>1690000</v>
+        <v>455000</v>
       </c>
       <c r="D8">
-        <v>5447447900</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3223.3</v>
+        <v>1365333400</v>
+      </c>
+      <c r="E8">
+        <v>3000.7</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -2853,13 +3425,13 @@
         <v>75000</v>
       </c>
       <c r="C9">
-        <v>1950000</v>
+        <v>525000</v>
       </c>
       <c r="D9">
-        <v>7258316300</v>
-      </c>
-      <c r="E9" s="2">
-        <v>3722.2</v>
+        <v>1687052700</v>
+      </c>
+      <c r="E9">
+        <v>3213.4</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -2877,13 +3449,13 @@
         <v>85000</v>
       </c>
       <c r="C10">
-        <v>2210000</v>
+        <v>595000</v>
       </c>
       <c r="D10">
-        <v>9779023300</v>
-      </c>
-      <c r="E10" s="2">
-        <v>4424.8999999999996</v>
+        <v>2518561300</v>
+      </c>
+      <c r="E10">
+        <v>4232.8999999999996</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -2901,13 +3473,13 @@
         <v>95000</v>
       </c>
       <c r="C11">
-        <v>2470000</v>
+        <v>665000</v>
       </c>
       <c r="D11">
-        <v>12424628200</v>
-      </c>
-      <c r="E11" s="2">
-        <v>5030.2</v>
+        <v>3253895700</v>
+      </c>
+      <c r="E11">
+        <v>4893.1000000000004</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -2925,13 +3497,13 @@
         <v>105000</v>
       </c>
       <c r="C12">
-        <v>2730000</v>
+        <v>735000</v>
       </c>
       <c r="D12">
-        <v>15502345300</v>
-      </c>
-      <c r="E12" s="2">
-        <v>5678.5</v>
+        <v>3963922500</v>
+      </c>
+      <c r="E12">
+        <v>5393.1</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -2949,13 +3521,13 @@
         <v>115000</v>
       </c>
       <c r="C13">
-        <v>2990000</v>
+        <v>805000</v>
       </c>
       <c r="D13">
-        <v>19348309600</v>
-      </c>
-      <c r="E13" s="2">
-        <v>6471</v>
+        <v>4905430500</v>
+      </c>
+      <c r="E13">
+        <v>6093.7</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -2967,247 +3539,482 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B14">
         <v>5000</v>
       </c>
       <c r="C14">
-        <v>155000</v>
+        <v>50000</v>
       </c>
       <c r="D14">
-        <v>25500600</v>
-      </c>
-      <c r="E14" s="2">
-        <v>164.5</v>
+        <v>7222400</v>
+      </c>
+      <c r="E14">
+        <v>144.4</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B15">
         <v>15000</v>
       </c>
       <c r="C15">
-        <v>465000</v>
+        <v>150000</v>
       </c>
       <c r="D15">
-        <v>79197500</v>
-      </c>
-      <c r="E15" s="2">
-        <v>170.3</v>
+        <v>23032300</v>
+      </c>
+      <c r="E15">
+        <v>153.5</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B16">
         <v>25000</v>
       </c>
       <c r="C16">
-        <v>775000</v>
+        <v>250000</v>
       </c>
       <c r="D16">
-        <v>145400200</v>
-      </c>
-      <c r="E16" s="2">
-        <v>187.6</v>
+        <v>39066000</v>
+      </c>
+      <c r="E16">
+        <v>156.30000000000001</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>35000</v>
       </c>
       <c r="C17">
-        <v>1085000</v>
+        <v>350000</v>
       </c>
       <c r="D17">
-        <v>226951000</v>
-      </c>
-      <c r="E17" s="2">
-        <v>209.2</v>
+        <v>56946600</v>
+      </c>
+      <c r="E17">
+        <v>162.69999999999999</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B18">
         <v>45000</v>
       </c>
       <c r="C18">
-        <v>1395000</v>
+        <v>450000</v>
       </c>
       <c r="D18">
-        <v>295969800</v>
-      </c>
-      <c r="E18" s="2">
-        <v>212.2</v>
+        <v>73364100</v>
+      </c>
+      <c r="E18">
+        <v>163</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>55000</v>
       </c>
       <c r="C19">
-        <v>1705000</v>
+        <v>550000</v>
       </c>
       <c r="D19">
-        <v>369983200</v>
-      </c>
-      <c r="E19" s="2">
-        <v>217</v>
+        <v>91407400</v>
+      </c>
+      <c r="E19">
+        <v>166.2</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B20">
         <v>65000</v>
       </c>
       <c r="C20">
-        <v>2015000</v>
+        <v>650000</v>
       </c>
       <c r="D20">
-        <v>448251200</v>
-      </c>
-      <c r="E20" s="2">
-        <v>222.5</v>
+        <v>112218500</v>
+      </c>
+      <c r="E20">
+        <v>172.6</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B21">
         <v>75000</v>
       </c>
       <c r="C21">
-        <v>2325000</v>
+        <v>750000</v>
       </c>
       <c r="D21">
-        <v>528304300</v>
-      </c>
-      <c r="E21" s="2">
-        <v>227.2</v>
+        <v>134317800</v>
+      </c>
+      <c r="E21">
+        <v>179.1</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B22">
         <v>85000</v>
       </c>
       <c r="C22">
-        <v>2635000</v>
+        <v>850000</v>
       </c>
       <c r="D22">
-        <v>598749500</v>
-      </c>
-      <c r="E22" s="2">
-        <v>227.2</v>
+        <v>149309700</v>
+      </c>
+      <c r="E22">
+        <v>175.7</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B23">
         <v>95000</v>
       </c>
       <c r="C23">
-        <v>2945000</v>
+        <v>950000</v>
       </c>
       <c r="D23">
-        <v>687876900</v>
-      </c>
-      <c r="E23" s="2">
-        <v>233.6</v>
+        <v>167321900</v>
+      </c>
+      <c r="E23">
+        <v>176.1</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>105000</v>
       </c>
       <c r="C24">
-        <v>3255000</v>
+        <v>1050000</v>
       </c>
       <c r="D24">
-        <v>786351300</v>
-      </c>
-      <c r="E24" s="2">
-        <v>241.6</v>
+        <v>187019500</v>
+      </c>
+      <c r="E24">
+        <v>178.1</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>115000</v>
       </c>
       <c r="C25">
-        <v>3565000</v>
+        <v>1150000</v>
       </c>
       <c r="D25">
-        <v>864039100</v>
-      </c>
-      <c r="E25" s="2">
-        <v>242.4</v>
+        <v>210657200</v>
+      </c>
+      <c r="E25">
+        <v>183.2</v>
       </c>
       <c r="F25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>5000</v>
+      </c>
+      <c r="C26">
+        <v>50000</v>
+      </c>
+      <c r="D26">
+        <v>7471000</v>
+      </c>
+      <c r="E26">
+        <v>149.4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>15000</v>
+      </c>
+      <c r="C27">
+        <v>150000</v>
+      </c>
+      <c r="D27">
+        <v>24651600</v>
+      </c>
+      <c r="E27">
+        <v>164.3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>25000</v>
+      </c>
+      <c r="C28">
+        <v>250000</v>
+      </c>
+      <c r="D28">
+        <v>42033500</v>
+      </c>
+      <c r="E28">
+        <v>168.1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>35000</v>
+      </c>
+      <c r="C29">
+        <v>350000</v>
+      </c>
+      <c r="D29">
+        <v>61372800</v>
+      </c>
+      <c r="E29">
+        <v>175.4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>45000</v>
+      </c>
+      <c r="C30">
+        <v>450000</v>
+      </c>
+      <c r="D30">
+        <v>81346300</v>
+      </c>
+      <c r="E30">
+        <v>180.8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>55000</v>
+      </c>
+      <c r="C31">
+        <v>550000</v>
+      </c>
+      <c r="D31">
+        <v>100556200</v>
+      </c>
+      <c r="E31">
+        <v>182.8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>65000</v>
+      </c>
+      <c r="C32">
+        <v>650000</v>
+      </c>
+      <c r="D32">
+        <v>120512400</v>
+      </c>
+      <c r="E32">
+        <v>185.4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>75000</v>
+      </c>
+      <c r="C33">
+        <v>750000</v>
+      </c>
+      <c r="D33">
+        <v>140244300</v>
+      </c>
+      <c r="E33">
+        <v>187</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>85000</v>
+      </c>
+      <c r="C34">
+        <v>850000</v>
+      </c>
+      <c r="D34">
+        <v>161928300</v>
+      </c>
+      <c r="E34">
+        <v>190.5</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>95000</v>
+      </c>
+      <c r="C35">
+        <v>950000</v>
+      </c>
+      <c r="D35">
+        <v>182287400</v>
+      </c>
+      <c r="E35">
+        <v>191.9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <v>105000</v>
+      </c>
+      <c r="C36">
+        <v>1050000</v>
+      </c>
+      <c r="D36">
+        <v>202100000</v>
+      </c>
+      <c r="E36">
+        <v>192.5</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>7</v>
+      <c r="B37">
+        <v>115000</v>
+      </c>
+      <c r="C37">
+        <v>1150000</v>
+      </c>
+      <c r="D37">
+        <v>227237600</v>
+      </c>
+      <c r="E37">
+        <v>197.6</v>
+      </c>
+      <c r="F37" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3215,4 +4022,1748 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F87"/>
+  <sheetViews>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:F87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>500</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10500</v>
+      </c>
+      <c r="D2" s="5">
+        <v>4590100</v>
+      </c>
+      <c r="E2" s="2">
+        <v>437.2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1500</v>
+      </c>
+      <c r="C3" s="5">
+        <v>31500</v>
+      </c>
+      <c r="D3" s="5">
+        <v>8954300</v>
+      </c>
+      <c r="E3" s="2">
+        <v>284.3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2500</v>
+      </c>
+      <c r="C4" s="5">
+        <v>52500</v>
+      </c>
+      <c r="D4" s="5">
+        <v>13492300</v>
+      </c>
+      <c r="E4" s="2">
+        <v>257</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3500</v>
+      </c>
+      <c r="C5" s="5">
+        <v>73500</v>
+      </c>
+      <c r="D5" s="5">
+        <v>10075600</v>
+      </c>
+      <c r="E5" s="2">
+        <v>137.1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4500</v>
+      </c>
+      <c r="C6" s="5">
+        <v>94500</v>
+      </c>
+      <c r="D6" s="5">
+        <v>12560800</v>
+      </c>
+      <c r="E6" s="2">
+        <v>132.9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5500</v>
+      </c>
+      <c r="C7" s="5">
+        <v>115500</v>
+      </c>
+      <c r="D7" s="5">
+        <v>15923700</v>
+      </c>
+      <c r="E7" s="2">
+        <v>137.9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>6500</v>
+      </c>
+      <c r="C8" s="5">
+        <v>136500</v>
+      </c>
+      <c r="D8" s="5">
+        <v>19432800</v>
+      </c>
+      <c r="E8" s="2">
+        <v>142.4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>7500</v>
+      </c>
+      <c r="C9" s="5">
+        <v>157500</v>
+      </c>
+      <c r="D9" s="5">
+        <v>22614800</v>
+      </c>
+      <c r="E9" s="2">
+        <v>143.6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>8500</v>
+      </c>
+      <c r="C10" s="5">
+        <v>178500</v>
+      </c>
+      <c r="D10" s="5">
+        <v>29037600</v>
+      </c>
+      <c r="E10" s="2">
+        <v>162.69999999999999</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>9500</v>
+      </c>
+      <c r="C11" s="5">
+        <v>199500</v>
+      </c>
+      <c r="D11" s="5">
+        <v>29642600</v>
+      </c>
+      <c r="E11" s="2">
+        <v>148.6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>10500</v>
+      </c>
+      <c r="C12" s="5">
+        <v>220500</v>
+      </c>
+      <c r="D12" s="5">
+        <v>33032800</v>
+      </c>
+      <c r="E12" s="2">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>11500</v>
+      </c>
+      <c r="C13" s="5">
+        <v>241500</v>
+      </c>
+      <c r="D13" s="5">
+        <v>36671700</v>
+      </c>
+      <c r="E13" s="2">
+        <v>151.80000000000001</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5">
+        <v>500</v>
+      </c>
+      <c r="C14" s="5">
+        <v>10500</v>
+      </c>
+      <c r="D14" s="5">
+        <v>9468500</v>
+      </c>
+      <c r="E14" s="2">
+        <v>901.8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1500</v>
+      </c>
+      <c r="C15" s="5">
+        <v>31500</v>
+      </c>
+      <c r="D15" s="5">
+        <v>5892600</v>
+      </c>
+      <c r="E15" s="2">
+        <v>187.1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2500</v>
+      </c>
+      <c r="C16" s="5">
+        <v>52500</v>
+      </c>
+      <c r="D16" s="5">
+        <v>8502000</v>
+      </c>
+      <c r="E16" s="2">
+        <v>161.9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" s="5">
+        <v>3500</v>
+      </c>
+      <c r="C17" s="5">
+        <v>73500</v>
+      </c>
+      <c r="D17" s="5">
+        <v>10079300</v>
+      </c>
+      <c r="E17" s="2">
+        <v>137.1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" s="5">
+        <v>4500</v>
+      </c>
+      <c r="C18" s="5">
+        <v>94500</v>
+      </c>
+      <c r="D18" s="5">
+        <v>13009000</v>
+      </c>
+      <c r="E18" s="2">
+        <v>137.69999999999999</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" s="5">
+        <v>5500</v>
+      </c>
+      <c r="C19" s="5">
+        <v>115500</v>
+      </c>
+      <c r="D19" s="5">
+        <v>16705000</v>
+      </c>
+      <c r="E19" s="2">
+        <v>144.6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" s="5">
+        <v>6500</v>
+      </c>
+      <c r="C20" s="5">
+        <v>136500</v>
+      </c>
+      <c r="D20" s="5">
+        <v>19672900</v>
+      </c>
+      <c r="E20" s="2">
+        <v>144.1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21" s="5">
+        <v>7500</v>
+      </c>
+      <c r="C21" s="5">
+        <v>157500</v>
+      </c>
+      <c r="D21" s="5">
+        <v>23219300</v>
+      </c>
+      <c r="E21" s="2">
+        <v>147.4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22" s="5">
+        <v>8500</v>
+      </c>
+      <c r="C22" s="5">
+        <v>178500</v>
+      </c>
+      <c r="D22" s="5">
+        <v>25827400</v>
+      </c>
+      <c r="E22" s="2">
+        <v>144.69999999999999</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" s="5">
+        <v>9500</v>
+      </c>
+      <c r="C23" s="5">
+        <v>199500</v>
+      </c>
+      <c r="D23" s="5">
+        <v>30447400</v>
+      </c>
+      <c r="E23" s="2">
+        <v>152.6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24" s="5">
+        <v>10500</v>
+      </c>
+      <c r="C24" s="5">
+        <v>220500</v>
+      </c>
+      <c r="D24" s="5">
+        <v>32843000</v>
+      </c>
+      <c r="E24" s="2">
+        <v>148.9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25" s="5">
+        <v>11500</v>
+      </c>
+      <c r="C25" s="5">
+        <v>241500</v>
+      </c>
+      <c r="D25" s="5">
+        <v>36732900</v>
+      </c>
+      <c r="E25" s="2">
+        <v>152.1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" s="5">
+        <v>500</v>
+      </c>
+      <c r="C26" s="5">
+        <v>10500</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1826000</v>
+      </c>
+      <c r="E26" s="2">
+        <v>173.9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1500</v>
+      </c>
+      <c r="C27" s="5">
+        <v>31500</v>
+      </c>
+      <c r="D27" s="5">
+        <v>7342000</v>
+      </c>
+      <c r="E27" s="2">
+        <v>233.1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5">
+        <v>2500</v>
+      </c>
+      <c r="C28" s="5">
+        <v>52500</v>
+      </c>
+      <c r="D28" s="5">
+        <v>14406300</v>
+      </c>
+      <c r="E28" s="2">
+        <v>274.39999999999998</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" s="5">
+        <v>3500</v>
+      </c>
+      <c r="C29" s="5">
+        <v>73500</v>
+      </c>
+      <c r="D29" s="5">
+        <v>23539100</v>
+      </c>
+      <c r="E29" s="2">
+        <v>320.3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" s="5">
+        <v>4500</v>
+      </c>
+      <c r="C30" s="5">
+        <v>94500</v>
+      </c>
+      <c r="D30" s="5">
+        <v>27746300</v>
+      </c>
+      <c r="E30" s="2">
+        <v>293.60000000000002</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" s="5">
+        <v>5500</v>
+      </c>
+      <c r="C31" s="5">
+        <v>115500</v>
+      </c>
+      <c r="D31" s="5">
+        <v>39166300</v>
+      </c>
+      <c r="E31" s="2">
+        <v>339.1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32" s="5">
+        <v>6500</v>
+      </c>
+      <c r="C32" s="5">
+        <v>136500</v>
+      </c>
+      <c r="D32" s="5">
+        <v>49571800</v>
+      </c>
+      <c r="E32" s="2">
+        <v>363.2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33" s="5">
+        <v>7500</v>
+      </c>
+      <c r="C33" s="5">
+        <v>157500</v>
+      </c>
+      <c r="D33" s="5">
+        <v>61783600</v>
+      </c>
+      <c r="E33" s="2">
+        <v>392.3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34" s="5">
+        <v>8500</v>
+      </c>
+      <c r="C34" s="5">
+        <v>178500</v>
+      </c>
+      <c r="D34" s="5">
+        <v>77452900</v>
+      </c>
+      <c r="E34" s="2">
+        <v>433.9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35" s="5">
+        <v>9500</v>
+      </c>
+      <c r="C35" s="5">
+        <v>199500</v>
+      </c>
+      <c r="D35" s="5">
+        <v>97445300</v>
+      </c>
+      <c r="E35" s="2">
+        <v>488.4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>11</v>
+      </c>
+      <c r="B36" s="5">
+        <v>10500</v>
+      </c>
+      <c r="C36" s="5">
+        <v>220500</v>
+      </c>
+      <c r="D36" s="5">
+        <v>117035400</v>
+      </c>
+      <c r="E36" s="2">
+        <v>530.79999999999995</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>12</v>
+      </c>
+      <c r="B37" s="5">
+        <v>11500</v>
+      </c>
+      <c r="C37" s="5">
+        <v>241500</v>
+      </c>
+      <c r="D37" s="5">
+        <v>139634500</v>
+      </c>
+      <c r="E37" s="2">
+        <v>578.20000000000005</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" s="5">
+        <v>500</v>
+      </c>
+      <c r="C38" s="5">
+        <v>10500</v>
+      </c>
+      <c r="D38" s="5">
+        <v>800300</v>
+      </c>
+      <c r="E38" s="2">
+        <v>76.2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" s="5">
+        <v>1500</v>
+      </c>
+      <c r="C39" s="5">
+        <v>31500</v>
+      </c>
+      <c r="D39" s="5">
+        <v>3476400</v>
+      </c>
+      <c r="E39" s="2">
+        <v>110.4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" s="5">
+        <v>2500</v>
+      </c>
+      <c r="C40" s="5">
+        <v>52500</v>
+      </c>
+      <c r="D40" s="5">
+        <v>7492100</v>
+      </c>
+      <c r="E40" s="2">
+        <v>142.69999999999999</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" s="5">
+        <v>3500</v>
+      </c>
+      <c r="C41" s="5">
+        <v>73500</v>
+      </c>
+      <c r="D41" s="5">
+        <v>10166000</v>
+      </c>
+      <c r="E41" s="2">
+        <v>138.30000000000001</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" s="5">
+        <v>4500</v>
+      </c>
+      <c r="C42" s="5">
+        <v>94500</v>
+      </c>
+      <c r="D42" s="5">
+        <v>13340600</v>
+      </c>
+      <c r="E42" s="2">
+        <v>141.19999999999999</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43" s="5">
+        <v>5500</v>
+      </c>
+      <c r="C43" s="5">
+        <v>115500</v>
+      </c>
+      <c r="D43" s="5">
+        <v>14855200</v>
+      </c>
+      <c r="E43" s="2">
+        <v>128.6</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44" s="5">
+        <v>6500</v>
+      </c>
+      <c r="C44" s="5">
+        <v>136500</v>
+      </c>
+      <c r="D44" s="5">
+        <v>18444300</v>
+      </c>
+      <c r="E44" s="2">
+        <v>135.1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45" s="5">
+        <v>7500</v>
+      </c>
+      <c r="C45" s="5">
+        <v>157500</v>
+      </c>
+      <c r="D45" s="5">
+        <v>21207500</v>
+      </c>
+      <c r="E45" s="2">
+        <v>134.69999999999999</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46" s="5">
+        <v>8500</v>
+      </c>
+      <c r="C46" s="5">
+        <v>178500</v>
+      </c>
+      <c r="D46" s="5">
+        <v>24394700</v>
+      </c>
+      <c r="E46" s="2">
+        <v>136.69999999999999</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47" s="5">
+        <v>9500</v>
+      </c>
+      <c r="C47" s="5">
+        <v>199500</v>
+      </c>
+      <c r="D47" s="5">
+        <v>28161900</v>
+      </c>
+      <c r="E47" s="2">
+        <v>141.19999999999999</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>11</v>
+      </c>
+      <c r="B48" s="5">
+        <v>10500</v>
+      </c>
+      <c r="C48" s="5">
+        <v>220500</v>
+      </c>
+      <c r="D48" s="5">
+        <v>31444000</v>
+      </c>
+      <c r="E48" s="2">
+        <v>142.6</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>12</v>
+      </c>
+      <c r="B49" s="5">
+        <v>11500</v>
+      </c>
+      <c r="C49" s="5">
+        <v>241500</v>
+      </c>
+      <c r="D49" s="5">
+        <v>34954100</v>
+      </c>
+      <c r="E49" s="2">
+        <v>144.69999999999999</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>5000</v>
+      </c>
+      <c r="C52">
+        <v>35000</v>
+      </c>
+      <c r="D52">
+        <v>13496800</v>
+      </c>
+      <c r="E52">
+        <v>385.6</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>15000</v>
+      </c>
+      <c r="C53">
+        <v>105000</v>
+      </c>
+      <c r="D53">
+        <v>82525000</v>
+      </c>
+      <c r="E53">
+        <v>786</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>25000</v>
+      </c>
+      <c r="C54">
+        <v>175000</v>
+      </c>
+      <c r="D54">
+        <v>208459000</v>
+      </c>
+      <c r="E54">
+        <v>1191.2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>4</v>
+      </c>
+      <c r="B55">
+        <v>35000</v>
+      </c>
+      <c r="C55">
+        <v>245000</v>
+      </c>
+      <c r="D55">
+        <v>426537300</v>
+      </c>
+      <c r="E55">
+        <v>1741</v>
+      </c>
+      <c r="F55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>5</v>
+      </c>
+      <c r="B56">
+        <v>45000</v>
+      </c>
+      <c r="C56">
+        <v>315000</v>
+      </c>
+      <c r="D56">
+        <v>657184000</v>
+      </c>
+      <c r="E56">
+        <v>2086.3000000000002</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <v>55000</v>
+      </c>
+      <c r="C57">
+        <v>385000</v>
+      </c>
+      <c r="D57">
+        <v>983817100</v>
+      </c>
+      <c r="E57">
+        <v>2555.4</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>7</v>
+      </c>
+      <c r="B58">
+        <v>65000</v>
+      </c>
+      <c r="C58">
+        <v>455000</v>
+      </c>
+      <c r="D58">
+        <v>1365333400</v>
+      </c>
+      <c r="E58">
+        <v>3000.7</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>8</v>
+      </c>
+      <c r="B59">
+        <v>75000</v>
+      </c>
+      <c r="C59">
+        <v>525000</v>
+      </c>
+      <c r="D59">
+        <v>1687052700</v>
+      </c>
+      <c r="E59">
+        <v>3213.4</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>9</v>
+      </c>
+      <c r="B60">
+        <v>85000</v>
+      </c>
+      <c r="C60">
+        <v>595000</v>
+      </c>
+      <c r="D60">
+        <v>2518561300</v>
+      </c>
+      <c r="E60">
+        <v>4232.8999999999996</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>10</v>
+      </c>
+      <c r="B61">
+        <v>95000</v>
+      </c>
+      <c r="C61">
+        <v>665000</v>
+      </c>
+      <c r="D61">
+        <v>3253895700</v>
+      </c>
+      <c r="E61">
+        <v>4893.1000000000004</v>
+      </c>
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>11</v>
+      </c>
+      <c r="B62">
+        <v>105000</v>
+      </c>
+      <c r="C62">
+        <v>735000</v>
+      </c>
+      <c r="D62">
+        <v>3963922500</v>
+      </c>
+      <c r="E62">
+        <v>5393.1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>12</v>
+      </c>
+      <c r="B63">
+        <v>115000</v>
+      </c>
+      <c r="C63">
+        <v>805000</v>
+      </c>
+      <c r="D63">
+        <v>4905430500</v>
+      </c>
+      <c r="E63">
+        <v>6093.7</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>5000</v>
+      </c>
+      <c r="C64">
+        <v>50000</v>
+      </c>
+      <c r="D64">
+        <v>7222400</v>
+      </c>
+      <c r="E64">
+        <v>144.4</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <v>15000</v>
+      </c>
+      <c r="C65">
+        <v>150000</v>
+      </c>
+      <c r="D65">
+        <v>23032300</v>
+      </c>
+      <c r="E65">
+        <v>153.5</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <v>25000</v>
+      </c>
+      <c r="C66">
+        <v>250000</v>
+      </c>
+      <c r="D66">
+        <v>39066000</v>
+      </c>
+      <c r="E66">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>35000</v>
+      </c>
+      <c r="C67">
+        <v>350000</v>
+      </c>
+      <c r="D67">
+        <v>56946600</v>
+      </c>
+      <c r="E67">
+        <v>162.69999999999999</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <v>45000</v>
+      </c>
+      <c r="C68">
+        <v>450000</v>
+      </c>
+      <c r="D68">
+        <v>73364100</v>
+      </c>
+      <c r="E68">
+        <v>163</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>6</v>
+      </c>
+      <c r="B69">
+        <v>55000</v>
+      </c>
+      <c r="C69">
+        <v>550000</v>
+      </c>
+      <c r="D69">
+        <v>91407400</v>
+      </c>
+      <c r="E69">
+        <v>166.2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>7</v>
+      </c>
+      <c r="B70">
+        <v>65000</v>
+      </c>
+      <c r="C70">
+        <v>650000</v>
+      </c>
+      <c r="D70">
+        <v>112218500</v>
+      </c>
+      <c r="E70">
+        <v>172.6</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>8</v>
+      </c>
+      <c r="B71">
+        <v>75000</v>
+      </c>
+      <c r="C71">
+        <v>750000</v>
+      </c>
+      <c r="D71">
+        <v>134317800</v>
+      </c>
+      <c r="E71">
+        <v>179.1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>9</v>
+      </c>
+      <c r="B72">
+        <v>85000</v>
+      </c>
+      <c r="C72">
+        <v>850000</v>
+      </c>
+      <c r="D72">
+        <v>149309700</v>
+      </c>
+      <c r="E72">
+        <v>175.7</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>10</v>
+      </c>
+      <c r="B73">
+        <v>95000</v>
+      </c>
+      <c r="C73">
+        <v>950000</v>
+      </c>
+      <c r="D73">
+        <v>167321900</v>
+      </c>
+      <c r="E73">
+        <v>176.1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>11</v>
+      </c>
+      <c r="B74">
+        <v>105000</v>
+      </c>
+      <c r="C74">
+        <v>1050000</v>
+      </c>
+      <c r="D74">
+        <v>187019500</v>
+      </c>
+      <c r="E74">
+        <v>178.1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>12</v>
+      </c>
+      <c r="B75">
+        <v>115000</v>
+      </c>
+      <c r="C75">
+        <v>1150000</v>
+      </c>
+      <c r="D75">
+        <v>210657200</v>
+      </c>
+      <c r="E75">
+        <v>183.2</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>5000</v>
+      </c>
+      <c r="C76">
+        <v>50000</v>
+      </c>
+      <c r="D76">
+        <v>7471000</v>
+      </c>
+      <c r="E76">
+        <v>149.4</v>
+      </c>
+      <c r="F76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <v>15000</v>
+      </c>
+      <c r="C77">
+        <v>150000</v>
+      </c>
+      <c r="D77">
+        <v>24651600</v>
+      </c>
+      <c r="E77">
+        <v>164.3</v>
+      </c>
+      <c r="F77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>3</v>
+      </c>
+      <c r="B78">
+        <v>25000</v>
+      </c>
+      <c r="C78">
+        <v>250000</v>
+      </c>
+      <c r="D78">
+        <v>42033500</v>
+      </c>
+      <c r="E78">
+        <v>168.1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>4</v>
+      </c>
+      <c r="B79">
+        <v>35000</v>
+      </c>
+      <c r="C79">
+        <v>350000</v>
+      </c>
+      <c r="D79">
+        <v>61372800</v>
+      </c>
+      <c r="E79">
+        <v>175.4</v>
+      </c>
+      <c r="F79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>5</v>
+      </c>
+      <c r="B80">
+        <v>45000</v>
+      </c>
+      <c r="C80">
+        <v>450000</v>
+      </c>
+      <c r="D80">
+        <v>81346300</v>
+      </c>
+      <c r="E80">
+        <v>180.8</v>
+      </c>
+      <c r="F80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>6</v>
+      </c>
+      <c r="B81">
+        <v>55000</v>
+      </c>
+      <c r="C81">
+        <v>550000</v>
+      </c>
+      <c r="D81">
+        <v>100556200</v>
+      </c>
+      <c r="E81">
+        <v>182.8</v>
+      </c>
+      <c r="F81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>7</v>
+      </c>
+      <c r="B82">
+        <v>65000</v>
+      </c>
+      <c r="C82">
+        <v>650000</v>
+      </c>
+      <c r="D82">
+        <v>120512400</v>
+      </c>
+      <c r="E82">
+        <v>185.4</v>
+      </c>
+      <c r="F82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>8</v>
+      </c>
+      <c r="B83">
+        <v>75000</v>
+      </c>
+      <c r="C83">
+        <v>750000</v>
+      </c>
+      <c r="D83">
+        <v>140244300</v>
+      </c>
+      <c r="E83">
+        <v>187</v>
+      </c>
+      <c r="F83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>9</v>
+      </c>
+      <c r="B84">
+        <v>85000</v>
+      </c>
+      <c r="C84">
+        <v>850000</v>
+      </c>
+      <c r="D84">
+        <v>161928300</v>
+      </c>
+      <c r="E84">
+        <v>190.5</v>
+      </c>
+      <c r="F84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>10</v>
+      </c>
+      <c r="B85">
+        <v>95000</v>
+      </c>
+      <c r="C85">
+        <v>950000</v>
+      </c>
+      <c r="D85">
+        <v>182287400</v>
+      </c>
+      <c r="E85">
+        <v>191.9</v>
+      </c>
+      <c r="F85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>11</v>
+      </c>
+      <c r="B86">
+        <v>105000</v>
+      </c>
+      <c r="C86">
+        <v>1050000</v>
+      </c>
+      <c r="D86">
+        <v>202100000</v>
+      </c>
+      <c r="E86">
+        <v>192.5</v>
+      </c>
+      <c r="F86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>12</v>
+      </c>
+      <c r="B87">
+        <v>115000</v>
+      </c>
+      <c r="C87">
+        <v>1150000</v>
+      </c>
+      <c r="D87">
+        <v>227237600</v>
+      </c>
+      <c r="E87">
+        <v>197.6</v>
+      </c>
+      <c r="F87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/dev-topics-codingexams/dev-topics-amazon-rangeconsolidator/analytics/raw_data/test_run.xlsx
+++ b/dev-topics-codingexams/dev-topics-amazon-rangeconsolidator/analytics/raw_data/test_run.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="38" windowWidth="27390" windowHeight="11768" activeTab="1"/>
+    <workbookView xWindow="420" yWindow="38" windowWidth="27390" windowHeight="11768"/>
   </bookViews>
   <sheets>
     <sheet name="test_run" sheetId="1" r:id="rId1"/>
     <sheet name="test_10x_run" sheetId="3" r:id="rId2"/>
-    <sheet name="Run_Log" sheetId="4" r:id="rId3"/>
+    <sheet name="Run_Log" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="test_run" localSheetId="2">Run_Log!$A$1:$F$87</definedName>
@@ -20,7 +20,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="test_run" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="1" name="test_run2" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="437" sourceFile="D:\GitHub\DemoDev-master\dev-topics-codingexams\dev-topics-amazon-rangeconsolidator\analytics\raw_data\test_run.csv" tab="0" comma="1">
       <textFields count="6">
         <textField/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="11">
   <si>
     <t>case</t>
   </si>
@@ -56,9 +56,6 @@
     <t>u_nano</t>
   </si>
   <si>
-    <t>nLogn/100K</t>
-  </si>
-  <si>
     <t>Leet-Code</t>
   </si>
   <si>
@@ -68,10 +65,10 @@
     <t>Sort</t>
   </si>
   <si>
-    <t>LeetCode</t>
+    <t>Left-to-right</t>
   </si>
   <si>
-    <t>Left-to-right</t>
+    <t>nLog(n)/100K</t>
   </si>
 </sst>
 </file>
@@ -559,17 +556,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -730,40 +725,40 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>437.2</c:v>
+                  <c:v>823.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>284.3</c:v>
+                  <c:v>388.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>257</c:v>
+                  <c:v>376.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>137.1</c:v>
+                  <c:v>256.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>132.9</c:v>
+                  <c:v>155.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>137.9</c:v>
+                  <c:v>151.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>142.4</c:v>
+                  <c:v>153.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>143.6</c:v>
+                  <c:v>177.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>162.69999999999999</c:v>
+                  <c:v>224.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>148.6</c:v>
+                  <c:v>147.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>149.80000000000001</c:v>
+                  <c:v>157.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>151.80000000000001</c:v>
+                  <c:v>155.80000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -836,40 +831,40 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>901.8</c:v>
+                  <c:v>1009.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>187.1</c:v>
+                  <c:v>272.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>190.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>155.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>152.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>154.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>161.9</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>137.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>137.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>144.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>144.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>147.4</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>144.69999999999999</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>152.6</c:v>
+                  <c:v>166.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>148.9</c:v>
+                  <c:v>160.9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>152.1</c:v>
+                  <c:v>164.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -939,43 +934,43 @@
             <c:numRef>
               <c:f>test_run!$E$26:$E$37</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>173.9</c:v>
+                  <c:v>350.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>233.1</c:v>
+                  <c:v>298.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>274.39999999999998</c:v>
+                  <c:v>270.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>320.3</c:v>
+                  <c:v>283.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>293.60000000000002</c:v>
+                  <c:v>307.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>339.1</c:v>
+                  <c:v>360.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>363.2</c:v>
+                  <c:v>437.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>392.3</c:v>
+                  <c:v>417</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>433.9</c:v>
+                  <c:v>487.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>488.4</c:v>
+                  <c:v>513.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>530.79999999999995</c:v>
+                  <c:v>575.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>578.20000000000005</c:v>
+                  <c:v>622</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1045,43 +1040,43 @@
             <c:numRef>
               <c:f>test_run!$E$38:$E$49</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>76.2</c:v>
+                  <c:v>82.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110.4</c:v>
+                  <c:v>122.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>142.69999999999999</c:v>
+                  <c:v>145.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>138.30000000000001</c:v>
+                  <c:v>155.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>141.19999999999999</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>128.6</c:v>
+                  <c:v>149.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>135.1</c:v>
+                  <c:v>148.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>134.69999999999999</c:v>
+                  <c:v>149.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>136.69999999999999</c:v>
+                  <c:v>149.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>141.19999999999999</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>142.6</c:v>
+                  <c:v>156.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>144.69999999999999</c:v>
+                  <c:v>172.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1096,11 +1091,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="135652480"/>
-        <c:axId val="135654400"/>
+        <c:axId val="126915328"/>
+        <c:axId val="126917248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135652480"/>
+        <c:axId val="126915328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12000"/>
@@ -1136,17 +1131,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135654400"/>
+        <c:crossAx val="126917248"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
         <c:minorUnit val="500"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135654400"/>
+        <c:axId val="126917248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="950"/>
+          <c:max val="1025"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1189,9 +1184,10 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135652480"/>
+        <c:crossAx val="126915328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="100"/>
         <c:minorUnit val="25"/>
       </c:valAx>
     </c:plotArea>
@@ -1256,6 +1252,218 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>test_10x_run!$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Leet-Code</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>test_10x_run!$B$14:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>115000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>test_10x_run!$E$14:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>218.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>197.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>191.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>205.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>211.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>232.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>221.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>235.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>232.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test_10x_run!$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Right-to-left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>test_10x_run!$B$26:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>115000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>test_10x_run!$E$26:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>181.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>192.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>209.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>223.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>239.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>233.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>255.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>245.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>252.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>255.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
               <c:f>test_10x_run!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1314,255 +1522,43 @@
             <c:numRef>
               <c:f>test_10x_run!$E$2:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>385.6</c:v>
+                  <c:v>379.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>786</c:v>
+                  <c:v>910.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1191.2</c:v>
+                  <c:v>1378.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1741</c:v>
+                  <c:v>1871.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2086.3000000000002</c:v>
+                  <c:v>2366.6999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2555.4</c:v>
+                  <c:v>2797.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000.7</c:v>
+                  <c:v>3262.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3213.4</c:v>
+                  <c:v>3931</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4232.8999999999996</c:v>
+                  <c:v>4497.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4893.1000000000004</c:v>
+                  <c:v>5105.8999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5393.1</c:v>
+                  <c:v>5708.7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6093.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>test_10x_run!$F$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LeetCode</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>test_10x_run!$B$14:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>65000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>75000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>85000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>95000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>105000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>115000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>test_10x_run!$E$14:$E$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>144.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>153.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>156.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>162.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>166.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>172.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>179.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>175.7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>176.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>178.1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>183.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>test_10x_run!$F$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Right-to-left</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>test_10x_run!$B$26:$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>65000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>75000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>85000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>95000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>105000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>115000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>test_10x_run!$E$26:$E$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>149.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>164.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>168.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>175.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>180.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>182.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>185.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>190.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>191.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>192.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>197.6</c:v>
+                  <c:v>6423.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1577,8 +1573,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="136009984"/>
-        <c:axId val="136016256"/>
+        <c:axId val="126962688"/>
+        <c:axId val="126977152"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1592,7 +1588,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>nLogn/100K</c:v>
+                  <c:v>nLog(n)/100K</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1646,40 +1642,40 @@
             <c:numRef>
               <c:f>test_10x_run!$G$2:$G$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.18</c:v>
+                  <c:v>0.185</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63</c:v>
+                  <c:v>0.626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>1.099</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.09</c:v>
+                  <c:v>2.0939999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.61</c:v>
+                  <c:v>2.6070000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.13</c:v>
+                  <c:v>3.1280000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.66</c:v>
+                  <c:v>3.6560000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4.1900000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.7300000000000004</c:v>
+                  <c:v>4.7290000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.27</c:v>
+                  <c:v>5.2720000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5.82</c:v>
@@ -1697,11 +1693,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="152417024"/>
-        <c:axId val="163329920"/>
+        <c:axId val="131594112"/>
+        <c:axId val="131861120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="136009984"/>
+        <c:axId val="126962688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120000"/>
@@ -1737,17 +1733,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136016256"/>
+        <c:crossAx val="126977152"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10000"/>
         <c:minorUnit val="5000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="136016256"/>
+        <c:axId val="126977152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6250"/>
+          <c:max val="6500"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1790,31 +1786,33 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136009984"/>
+        <c:crossAx val="126962688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1000"/>
         <c:minorUnit val="250"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="163329920"/>
+        <c:axId val="131861120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152417024"/>
+        <c:crossAx val="131594112"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
         <c:minorUnit val="0.25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="152417024"/>
+        <c:axId val="131594112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1824,7 +1822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163329920"/>
+        <c:crossAx val="131861120"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -1884,16 +1882,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>633413</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>14289</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>176213</xdr:rowOff>
+      <xdr:colOff>28577</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2210,7 +2208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2238,7 +2236,7 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2250,16 +2248,16 @@
         <v>500</v>
       </c>
       <c r="C2">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="D2">
-        <v>4590100</v>
+        <v>6585200</v>
       </c>
       <c r="E2" s="2">
-        <v>437.2</v>
+        <v>823.2</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -2270,16 +2268,16 @@
         <v>1500</v>
       </c>
       <c r="C3">
-        <v>31500</v>
+        <v>24000</v>
       </c>
       <c r="D3">
-        <v>8954300</v>
+        <v>9316300</v>
       </c>
       <c r="E3" s="2">
-        <v>284.3</v>
+        <v>388.2</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -2290,16 +2288,16 @@
         <v>2500</v>
       </c>
       <c r="C4">
-        <v>52500</v>
+        <v>40000</v>
       </c>
       <c r="D4">
-        <v>13492300</v>
+        <v>15070200</v>
       </c>
       <c r="E4" s="2">
-        <v>257</v>
+        <v>376.8</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -2310,16 +2308,16 @@
         <v>3500</v>
       </c>
       <c r="C5">
-        <v>73500</v>
+        <v>56000</v>
       </c>
       <c r="D5">
-        <v>10075600</v>
+        <v>14362800</v>
       </c>
       <c r="E5" s="2">
-        <v>137.1</v>
+        <v>256.5</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -2330,16 +2328,16 @@
         <v>4500</v>
       </c>
       <c r="C6">
-        <v>94500</v>
+        <v>72000</v>
       </c>
       <c r="D6">
-        <v>12560800</v>
+        <v>11168700</v>
       </c>
       <c r="E6" s="2">
-        <v>132.9</v>
+        <v>155.1</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -2350,16 +2348,16 @@
         <v>5500</v>
       </c>
       <c r="C7">
-        <v>115500</v>
+        <v>88000</v>
       </c>
       <c r="D7">
-        <v>15923700</v>
+        <v>13311500</v>
       </c>
       <c r="E7" s="2">
-        <v>137.9</v>
+        <v>151.30000000000001</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -2370,16 +2368,16 @@
         <v>6500</v>
       </c>
       <c r="C8">
-        <v>136500</v>
+        <v>104000</v>
       </c>
       <c r="D8">
-        <v>19432800</v>
+        <v>15935600</v>
       </c>
       <c r="E8" s="2">
-        <v>142.4</v>
+        <v>153.19999999999999</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -2390,16 +2388,16 @@
         <v>7500</v>
       </c>
       <c r="C9">
-        <v>157500</v>
+        <v>120000</v>
       </c>
       <c r="D9">
-        <v>22614800</v>
+        <v>21292000</v>
       </c>
       <c r="E9" s="2">
-        <v>143.6</v>
+        <v>177.4</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -2410,16 +2408,16 @@
         <v>8500</v>
       </c>
       <c r="C10">
-        <v>178500</v>
+        <v>136000</v>
       </c>
       <c r="D10">
-        <v>29037600</v>
+        <v>30489100</v>
       </c>
       <c r="E10" s="2">
-        <v>162.69999999999999</v>
+        <v>224.2</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -2430,16 +2428,16 @@
         <v>9500</v>
       </c>
       <c r="C11">
-        <v>199500</v>
+        <v>152000</v>
       </c>
       <c r="D11">
-        <v>29642600</v>
+        <v>22433400</v>
       </c>
       <c r="E11" s="2">
-        <v>148.6</v>
+        <v>147.6</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -2450,16 +2448,16 @@
         <v>10500</v>
       </c>
       <c r="C12">
-        <v>220500</v>
+        <v>168000</v>
       </c>
       <c r="D12">
-        <v>33032800</v>
+        <v>26391700</v>
       </c>
       <c r="E12" s="2">
-        <v>149.80000000000001</v>
+        <v>157.1</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -2470,16 +2468,16 @@
         <v>11500</v>
       </c>
       <c r="C13">
-        <v>241500</v>
+        <v>184000</v>
       </c>
       <c r="D13">
-        <v>36671700</v>
+        <v>28675800</v>
       </c>
       <c r="E13" s="2">
-        <v>151.80000000000001</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="F13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -2490,16 +2488,16 @@
         <v>500</v>
       </c>
       <c r="C14">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="D14">
-        <v>9468500</v>
+        <v>8077200</v>
       </c>
       <c r="E14" s="2">
-        <v>901.8</v>
+        <v>1009.7</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -2510,16 +2508,16 @@
         <v>1500</v>
       </c>
       <c r="C15">
-        <v>31500</v>
+        <v>24000</v>
       </c>
       <c r="D15">
-        <v>5892600</v>
+        <v>6537200</v>
       </c>
       <c r="E15" s="2">
-        <v>187.1</v>
+        <v>272.39999999999998</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -2530,16 +2528,16 @@
         <v>2500</v>
       </c>
       <c r="C16">
-        <v>52500</v>
+        <v>40000</v>
       </c>
       <c r="D16">
-        <v>8502000</v>
+        <v>8880000</v>
       </c>
       <c r="E16" s="2">
-        <v>161.9</v>
+        <v>222</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -2550,16 +2548,16 @@
         <v>3500</v>
       </c>
       <c r="C17">
-        <v>73500</v>
+        <v>56000</v>
       </c>
       <c r="D17">
-        <v>10079300</v>
+        <v>10668800</v>
       </c>
       <c r="E17" s="2">
-        <v>137.1</v>
+        <v>190.5</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -2570,16 +2568,16 @@
         <v>4500</v>
       </c>
       <c r="C18">
-        <v>94500</v>
+        <v>72000</v>
       </c>
       <c r="D18">
-        <v>13009000</v>
+        <v>11222100</v>
       </c>
       <c r="E18" s="2">
-        <v>137.69999999999999</v>
+        <v>155.9</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -2590,16 +2588,16 @@
         <v>5500</v>
       </c>
       <c r="C19">
-        <v>115500</v>
+        <v>88000</v>
       </c>
       <c r="D19">
-        <v>16705000</v>
+        <v>13398900</v>
       </c>
       <c r="E19" s="2">
-        <v>144.6</v>
+        <v>152.30000000000001</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -2610,16 +2608,16 @@
         <v>6500</v>
       </c>
       <c r="C20">
-        <v>136500</v>
+        <v>104000</v>
       </c>
       <c r="D20">
-        <v>19672900</v>
+        <v>16065300</v>
       </c>
       <c r="E20" s="2">
-        <v>144.1</v>
+        <v>154.5</v>
       </c>
       <c r="F20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -2630,16 +2628,16 @@
         <v>7500</v>
       </c>
       <c r="C21">
-        <v>157500</v>
+        <v>120000</v>
       </c>
       <c r="D21">
-        <v>23219300</v>
+        <v>19424400</v>
       </c>
       <c r="E21" s="2">
-        <v>147.4</v>
+        <v>161.9</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -2650,16 +2648,16 @@
         <v>8500</v>
       </c>
       <c r="C22">
-        <v>178500</v>
+        <v>136000</v>
       </c>
       <c r="D22">
-        <v>25827400</v>
+        <v>21075900</v>
       </c>
       <c r="E22" s="2">
-        <v>144.69999999999999</v>
+        <v>155</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -2670,16 +2668,16 @@
         <v>9500</v>
       </c>
       <c r="C23">
-        <v>199500</v>
+        <v>152000</v>
       </c>
       <c r="D23">
-        <v>30447400</v>
+        <v>25370400</v>
       </c>
       <c r="E23" s="2">
-        <v>152.6</v>
+        <v>166.9</v>
       </c>
       <c r="F23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -2690,16 +2688,16 @@
         <v>10500</v>
       </c>
       <c r="C24">
-        <v>220500</v>
+        <v>168000</v>
       </c>
       <c r="D24">
-        <v>32843000</v>
+        <v>27033900</v>
       </c>
       <c r="E24" s="2">
-        <v>148.9</v>
+        <v>160.9</v>
       </c>
       <c r="F24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -2710,16 +2708,16 @@
         <v>11500</v>
       </c>
       <c r="C25">
-        <v>241500</v>
+        <v>184000</v>
       </c>
       <c r="D25">
-        <v>36732900</v>
+        <v>30204200</v>
       </c>
       <c r="E25" s="2">
-        <v>152.1</v>
+        <v>164.2</v>
       </c>
       <c r="F25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -2730,16 +2728,16 @@
         <v>500</v>
       </c>
       <c r="C26">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="D26">
-        <v>1826000</v>
-      </c>
-      <c r="E26">
-        <v>173.9</v>
+        <v>2801400</v>
+      </c>
+      <c r="E26" s="2">
+        <v>350.2</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -2750,16 +2748,16 @@
         <v>1500</v>
       </c>
       <c r="C27">
-        <v>31500</v>
+        <v>24000</v>
       </c>
       <c r="D27">
-        <v>7342000</v>
-      </c>
-      <c r="E27">
-        <v>233.1</v>
+        <v>7162200</v>
+      </c>
+      <c r="E27" s="2">
+        <v>298.39999999999998</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -2770,16 +2768,16 @@
         <v>2500</v>
       </c>
       <c r="C28">
-        <v>52500</v>
+        <v>40000</v>
       </c>
       <c r="D28">
-        <v>14406300</v>
-      </c>
-      <c r="E28">
-        <v>274.39999999999998</v>
+        <v>10835600</v>
+      </c>
+      <c r="E28" s="2">
+        <v>270.89999999999998</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -2790,16 +2788,16 @@
         <v>3500</v>
       </c>
       <c r="C29">
-        <v>73500</v>
+        <v>56000</v>
       </c>
       <c r="D29">
-        <v>23539100</v>
-      </c>
-      <c r="E29">
-        <v>320.3</v>
+        <v>15897300</v>
+      </c>
+      <c r="E29" s="2">
+        <v>283.89999999999998</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -2810,16 +2808,16 @@
         <v>4500</v>
       </c>
       <c r="C30">
-        <v>94500</v>
+        <v>72000</v>
       </c>
       <c r="D30">
-        <v>27746300</v>
-      </c>
-      <c r="E30">
-        <v>293.60000000000002</v>
+        <v>22114500</v>
+      </c>
+      <c r="E30" s="2">
+        <v>307.10000000000002</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
@@ -2830,16 +2828,16 @@
         <v>5500</v>
       </c>
       <c r="C31">
-        <v>115500</v>
+        <v>88000</v>
       </c>
       <c r="D31">
-        <v>39166300</v>
-      </c>
-      <c r="E31">
-        <v>339.1</v>
+        <v>31756300</v>
+      </c>
+      <c r="E31" s="2">
+        <v>360.9</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -2850,16 +2848,16 @@
         <v>6500</v>
       </c>
       <c r="C32">
-        <v>136500</v>
+        <v>104000</v>
       </c>
       <c r="D32">
-        <v>49571800</v>
-      </c>
-      <c r="E32">
-        <v>363.2</v>
+        <v>45480400</v>
+      </c>
+      <c r="E32" s="2">
+        <v>437.3</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
@@ -2870,16 +2868,16 @@
         <v>7500</v>
       </c>
       <c r="C33">
-        <v>157500</v>
+        <v>120000</v>
       </c>
       <c r="D33">
-        <v>61783600</v>
-      </c>
-      <c r="E33">
-        <v>392.3</v>
+        <v>50036200</v>
+      </c>
+      <c r="E33" s="2">
+        <v>417</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
@@ -2890,16 +2888,16 @@
         <v>8500</v>
       </c>
       <c r="C34">
-        <v>178500</v>
+        <v>136000</v>
       </c>
       <c r="D34">
-        <v>77452900</v>
-      </c>
-      <c r="E34">
-        <v>433.9</v>
+        <v>66344400</v>
+      </c>
+      <c r="E34" s="2">
+        <v>487.8</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
@@ -2910,16 +2908,16 @@
         <v>9500</v>
       </c>
       <c r="C35">
-        <v>199500</v>
+        <v>152000</v>
       </c>
       <c r="D35">
-        <v>97445300</v>
-      </c>
-      <c r="E35">
-        <v>488.4</v>
+        <v>77987000</v>
+      </c>
+      <c r="E35" s="2">
+        <v>513.1</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
@@ -2930,16 +2928,16 @@
         <v>10500</v>
       </c>
       <c r="C36">
-        <v>220500</v>
+        <v>168000</v>
       </c>
       <c r="D36">
-        <v>117035400</v>
-      </c>
-      <c r="E36">
-        <v>530.79999999999995</v>
+        <v>96697500</v>
+      </c>
+      <c r="E36" s="2">
+        <v>575.6</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
@@ -2950,16 +2948,16 @@
         <v>11500</v>
       </c>
       <c r="C37">
-        <v>241500</v>
+        <v>184000</v>
       </c>
       <c r="D37">
-        <v>139634500</v>
-      </c>
-      <c r="E37">
-        <v>578.20000000000005</v>
+        <v>114439200</v>
+      </c>
+      <c r="E37" s="2">
+        <v>622</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
@@ -2970,16 +2968,16 @@
         <v>500</v>
       </c>
       <c r="C38">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="D38">
-        <v>800300</v>
-      </c>
-      <c r="E38">
-        <v>76.2</v>
+        <v>661800</v>
+      </c>
+      <c r="E38" s="2">
+        <v>82.7</v>
       </c>
       <c r="F38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
@@ -2990,16 +2988,16 @@
         <v>1500</v>
       </c>
       <c r="C39">
-        <v>31500</v>
+        <v>24000</v>
       </c>
       <c r="D39">
-        <v>3476400</v>
-      </c>
-      <c r="E39">
-        <v>110.4</v>
+        <v>2939700</v>
+      </c>
+      <c r="E39" s="2">
+        <v>122.5</v>
       </c>
       <c r="F39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
@@ -3010,16 +3008,16 @@
         <v>2500</v>
       </c>
       <c r="C40">
-        <v>52500</v>
+        <v>40000</v>
       </c>
       <c r="D40">
-        <v>7492100</v>
-      </c>
-      <c r="E40">
-        <v>142.69999999999999</v>
+        <v>5828400</v>
+      </c>
+      <c r="E40" s="2">
+        <v>145.69999999999999</v>
       </c>
       <c r="F40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
@@ -3030,16 +3028,16 @@
         <v>3500</v>
       </c>
       <c r="C41">
-        <v>73500</v>
+        <v>56000</v>
       </c>
       <c r="D41">
-        <v>10166000</v>
-      </c>
-      <c r="E41">
-        <v>138.30000000000001</v>
+        <v>8704400</v>
+      </c>
+      <c r="E41" s="2">
+        <v>155.4</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
@@ -3050,16 +3048,16 @@
         <v>4500</v>
       </c>
       <c r="C42">
-        <v>94500</v>
+        <v>72000</v>
       </c>
       <c r="D42">
-        <v>13340600</v>
-      </c>
-      <c r="E42">
-        <v>141.19999999999999</v>
+        <v>10221000</v>
+      </c>
+      <c r="E42" s="2">
+        <v>142</v>
       </c>
       <c r="F42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
@@ -3070,16 +3068,16 @@
         <v>5500</v>
       </c>
       <c r="C43">
-        <v>115500</v>
+        <v>88000</v>
       </c>
       <c r="D43">
-        <v>14855200</v>
-      </c>
-      <c r="E43">
-        <v>128.6</v>
+        <v>13127100</v>
+      </c>
+      <c r="E43" s="2">
+        <v>149.19999999999999</v>
       </c>
       <c r="F43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
@@ -3090,16 +3088,16 @@
         <v>6500</v>
       </c>
       <c r="C44">
-        <v>136500</v>
+        <v>104000</v>
       </c>
       <c r="D44">
-        <v>18444300</v>
-      </c>
-      <c r="E44">
-        <v>135.1</v>
+        <v>15401400</v>
+      </c>
+      <c r="E44" s="2">
+        <v>148.1</v>
       </c>
       <c r="F44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
@@ -3110,16 +3108,16 @@
         <v>7500</v>
       </c>
       <c r="C45">
-        <v>157500</v>
+        <v>120000</v>
       </c>
       <c r="D45">
-        <v>21207500</v>
-      </c>
-      <c r="E45">
-        <v>134.69999999999999</v>
+        <v>17908800</v>
+      </c>
+      <c r="E45" s="2">
+        <v>149.19999999999999</v>
       </c>
       <c r="F45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
@@ -3130,16 +3128,16 @@
         <v>8500</v>
       </c>
       <c r="C46">
-        <v>178500</v>
+        <v>136000</v>
       </c>
       <c r="D46">
-        <v>24394700</v>
-      </c>
-      <c r="E46">
-        <v>136.69999999999999</v>
+        <v>20349900</v>
+      </c>
+      <c r="E46" s="2">
+        <v>149.6</v>
       </c>
       <c r="F46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
@@ -3150,16 +3148,16 @@
         <v>9500</v>
       </c>
       <c r="C47">
-        <v>199500</v>
+        <v>152000</v>
       </c>
       <c r="D47">
-        <v>28161900</v>
-      </c>
-      <c r="E47">
-        <v>141.19999999999999</v>
+        <v>23248400</v>
+      </c>
+      <c r="E47" s="2">
+        <v>153</v>
       </c>
       <c r="F47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
@@ -3170,16 +3168,16 @@
         <v>10500</v>
       </c>
       <c r="C48">
-        <v>220500</v>
+        <v>168000</v>
       </c>
       <c r="D48">
-        <v>31444000</v>
-      </c>
-      <c r="E48">
-        <v>142.6</v>
+        <v>26336000</v>
+      </c>
+      <c r="E48" s="2">
+        <v>156.80000000000001</v>
       </c>
       <c r="F48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
@@ -3190,16 +3188,16 @@
         <v>11500</v>
       </c>
       <c r="C49">
-        <v>241500</v>
+        <v>184000</v>
       </c>
       <c r="D49">
-        <v>34954100</v>
-      </c>
-      <c r="E49">
-        <v>144.69999999999999</v>
+        <v>31659000</v>
+      </c>
+      <c r="E49" s="2">
+        <v>172.1</v>
       </c>
       <c r="F49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3213,7 +3211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3223,7 +3221,7 @@
     <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -3246,7 +3244,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -3257,20 +3255,20 @@
         <v>5000</v>
       </c>
       <c r="C2">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="D2">
-        <v>13496800</v>
-      </c>
-      <c r="E2">
-        <v>385.6</v>
+        <v>9497500</v>
+      </c>
+      <c r="E2" s="2">
+        <v>379.9</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3">
-        <f>ROUND(B2*LOG(B2)/100000, 2)</f>
-        <v>0.18</v>
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <f>ROUND(B2*LOG(B2)/100000, 3)</f>
+        <v>0.185</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -3281,20 +3279,20 @@
         <v>15000</v>
       </c>
       <c r="C3">
-        <v>105000</v>
+        <v>75000</v>
       </c>
       <c r="D3">
-        <v>82525000</v>
-      </c>
-      <c r="E3">
-        <v>786</v>
+        <v>68271200</v>
+      </c>
+      <c r="E3" s="2">
+        <v>910.3</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3">
-        <f t="shared" ref="G3:G13" si="0">ROUND(B3*LOG(B3)/100000, 2)</f>
-        <v>0.63</v>
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G37" si="0">ROUND(B3*LOG(B3)/100000, 3)</f>
+        <v>0.626</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -3305,20 +3303,20 @@
         <v>25000</v>
       </c>
       <c r="C4">
-        <v>175000</v>
+        <v>125000</v>
       </c>
       <c r="D4">
-        <v>208459000</v>
-      </c>
-      <c r="E4">
-        <v>1191.2</v>
+        <v>172328200</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1378.6</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3">
+        <v>9</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>1.099</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -3329,18 +3327,18 @@
         <v>35000</v>
       </c>
       <c r="C5">
-        <v>245000</v>
+        <v>175000</v>
       </c>
       <c r="D5">
-        <v>426537300</v>
-      </c>
-      <c r="E5">
-        <v>1741</v>
+        <v>327492900</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1871.4</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3">
+        <v>9</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="0"/>
         <v>1.59</v>
       </c>
@@ -3353,20 +3351,20 @@
         <v>45000</v>
       </c>
       <c r="C6">
-        <v>315000</v>
+        <v>225000</v>
       </c>
       <c r="D6">
-        <v>657184000</v>
-      </c>
-      <c r="E6">
-        <v>2086.3000000000002</v>
+        <v>532517000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2366.6999999999998</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="3">
+        <v>9</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="0"/>
-        <v>2.09</v>
+        <v>2.0939999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -3377,20 +3375,20 @@
         <v>55000</v>
       </c>
       <c r="C7">
-        <v>385000</v>
+        <v>275000</v>
       </c>
       <c r="D7">
-        <v>983817100</v>
-      </c>
-      <c r="E7">
-        <v>2555.4</v>
+        <v>769275300</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2797.4</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="3">
+        <v>9</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="0"/>
-        <v>2.61</v>
+        <v>2.6070000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -3401,20 +3399,20 @@
         <v>65000</v>
       </c>
       <c r="C8">
-        <v>455000</v>
+        <v>325000</v>
       </c>
       <c r="D8">
-        <v>1365333400</v>
-      </c>
-      <c r="E8">
-        <v>3000.7</v>
+        <v>1060423800</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3262.8</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="3">
+        <v>9</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="0"/>
-        <v>3.13</v>
+        <v>3.1280000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -3425,20 +3423,20 @@
         <v>75000</v>
       </c>
       <c r="C9">
-        <v>525000</v>
+        <v>375000</v>
       </c>
       <c r="D9">
-        <v>1687052700</v>
-      </c>
-      <c r="E9">
-        <v>3213.4</v>
+        <v>1474132200</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3931</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="3">
+        <v>9</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="0"/>
-        <v>3.66</v>
+        <v>3.6560000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -3449,18 +3447,18 @@
         <v>85000</v>
       </c>
       <c r="C10">
-        <v>595000</v>
+        <v>425000</v>
       </c>
       <c r="D10">
-        <v>2518561300</v>
-      </c>
-      <c r="E10">
-        <v>4232.8999999999996</v>
+        <v>1911562800</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4497.8</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="3">
+        <v>9</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="0"/>
         <v>4.1900000000000004</v>
       </c>
@@ -3473,20 +3471,20 @@
         <v>95000</v>
       </c>
       <c r="C11">
-        <v>665000</v>
+        <v>475000</v>
       </c>
       <c r="D11">
-        <v>3253895700</v>
-      </c>
-      <c r="E11">
-        <v>4893.1000000000004</v>
+        <v>2425296900</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5105.8999999999996</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="3">
+        <v>9</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="0"/>
-        <v>4.7300000000000004</v>
+        <v>4.7290000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -3497,20 +3495,20 @@
         <v>105000</v>
       </c>
       <c r="C12">
-        <v>735000</v>
+        <v>525000</v>
       </c>
       <c r="D12">
-        <v>3963922500</v>
-      </c>
-      <c r="E12">
-        <v>5393.1</v>
+        <v>2997079500</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5708.7</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="3">
+        <v>9</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="0"/>
-        <v>5.27</v>
+        <v>5.2720000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -3521,18 +3519,18 @@
         <v>115000</v>
       </c>
       <c r="C13">
-        <v>805000</v>
+        <v>575000</v>
       </c>
       <c r="D13">
-        <v>4905430500</v>
-      </c>
-      <c r="E13">
-        <v>6093.7</v>
+        <v>3693485700</v>
+      </c>
+      <c r="E13" s="2">
+        <v>6423.5</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="3">
+        <v>9</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="0"/>
         <v>5.82</v>
       </c>
@@ -3545,16 +3543,20 @@
         <v>5000</v>
       </c>
       <c r="C14">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="D14">
-        <v>7222400</v>
-      </c>
-      <c r="E14">
-        <v>144.4</v>
+        <v>8747100</v>
+      </c>
+      <c r="E14" s="2">
+        <v>218.7</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0.185</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -3565,16 +3567,20 @@
         <v>15000</v>
       </c>
       <c r="C15">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="D15">
-        <v>23032300</v>
-      </c>
-      <c r="E15">
-        <v>153.5</v>
+        <v>23958000</v>
+      </c>
+      <c r="E15" s="2">
+        <v>199.7</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0.626</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -3585,19 +3591,23 @@
         <v>25000</v>
       </c>
       <c r="C16">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="D16">
-        <v>39066000</v>
-      </c>
-      <c r="E16">
-        <v>156.30000000000001</v>
+        <v>39431500</v>
+      </c>
+      <c r="E16" s="2">
+        <v>197.2</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>1.099</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>4</v>
       </c>
@@ -3605,19 +3615,23 @@
         <v>35000</v>
       </c>
       <c r="C17">
-        <v>350000</v>
+        <v>280000</v>
       </c>
       <c r="D17">
-        <v>56946600</v>
-      </c>
-      <c r="E17">
-        <v>162.69999999999999</v>
+        <v>53744700</v>
+      </c>
+      <c r="E17" s="2">
+        <v>191.9</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>5</v>
       </c>
@@ -3625,19 +3639,23 @@
         <v>45000</v>
       </c>
       <c r="C18">
-        <v>450000</v>
+        <v>360000</v>
       </c>
       <c r="D18">
-        <v>73364100</v>
-      </c>
-      <c r="E18">
-        <v>163</v>
+        <v>73906500</v>
+      </c>
+      <c r="E18" s="2">
+        <v>205.3</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>2.0939999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>6</v>
       </c>
@@ -3645,19 +3663,23 @@
         <v>55000</v>
       </c>
       <c r="C19">
-        <v>550000</v>
+        <v>440000</v>
       </c>
       <c r="D19">
-        <v>91407400</v>
-      </c>
-      <c r="E19">
-        <v>166.2</v>
+        <v>91507600</v>
+      </c>
+      <c r="E19" s="2">
+        <v>208</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>2.6070000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>7</v>
       </c>
@@ -3665,19 +3687,23 @@
         <v>65000</v>
       </c>
       <c r="C20">
-        <v>650000</v>
+        <v>520000</v>
       </c>
       <c r="D20">
-        <v>112218500</v>
-      </c>
-      <c r="E20">
-        <v>172.6</v>
+        <v>109859600</v>
+      </c>
+      <c r="E20" s="2">
+        <v>211.3</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>3.1280000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>8</v>
       </c>
@@ -3685,19 +3711,23 @@
         <v>75000</v>
       </c>
       <c r="C21">
-        <v>750000</v>
+        <v>600000</v>
       </c>
       <c r="D21">
-        <v>134317800</v>
-      </c>
-      <c r="E21">
-        <v>179.1</v>
+        <v>139766300</v>
+      </c>
+      <c r="E21" s="2">
+        <v>232.9</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>3.6560000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>9</v>
       </c>
@@ -3705,19 +3735,23 @@
         <v>85000</v>
       </c>
       <c r="C22">
-        <v>850000</v>
+        <v>680000</v>
       </c>
       <c r="D22">
-        <v>149309700</v>
-      </c>
-      <c r="E22">
-        <v>175.7</v>
+        <v>150614500</v>
+      </c>
+      <c r="E22" s="2">
+        <v>221.5</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>10</v>
       </c>
@@ -3725,19 +3759,23 @@
         <v>95000</v>
       </c>
       <c r="C23">
-        <v>950000</v>
+        <v>760000</v>
       </c>
       <c r="D23">
-        <v>167321900</v>
-      </c>
-      <c r="E23">
-        <v>176.1</v>
+        <v>178713200</v>
+      </c>
+      <c r="E23" s="2">
+        <v>235.1</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>4.7290000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>11</v>
       </c>
@@ -3745,19 +3783,23 @@
         <v>105000</v>
       </c>
       <c r="C24">
-        <v>1050000</v>
+        <v>840000</v>
       </c>
       <c r="D24">
-        <v>187019500</v>
-      </c>
-      <c r="E24">
-        <v>178.1</v>
+        <v>194020000</v>
+      </c>
+      <c r="E24" s="2">
+        <v>231</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>5.2720000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>12</v>
       </c>
@@ -3765,19 +3807,23 @@
         <v>115000</v>
       </c>
       <c r="C25">
-        <v>1150000</v>
+        <v>920000</v>
       </c>
       <c r="D25">
-        <v>210657200</v>
-      </c>
-      <c r="E25">
-        <v>183.2</v>
+        <v>213542100</v>
+      </c>
+      <c r="E25" s="2">
+        <v>232.1</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1</v>
       </c>
@@ -3785,19 +3831,23 @@
         <v>5000</v>
       </c>
       <c r="C26">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="D26">
-        <v>7471000</v>
-      </c>
-      <c r="E26">
-        <v>149.4</v>
+        <v>7253500</v>
+      </c>
+      <c r="E26" s="2">
+        <v>181.3</v>
       </c>
       <c r="F26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2</v>
       </c>
@@ -3805,19 +3855,23 @@
         <v>15000</v>
       </c>
       <c r="C27">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="D27">
-        <v>24651600</v>
-      </c>
-      <c r="E27">
-        <v>164.3</v>
+        <v>23079600</v>
+      </c>
+      <c r="E27" s="2">
+        <v>192.3</v>
       </c>
       <c r="F27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>0.626</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>3</v>
       </c>
@@ -3825,19 +3879,23 @@
         <v>25000</v>
       </c>
       <c r="C28">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="D28">
-        <v>42033500</v>
-      </c>
-      <c r="E28">
-        <v>168.1</v>
+        <v>40168600</v>
+      </c>
+      <c r="E28" s="2">
+        <v>200.8</v>
       </c>
       <c r="F28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>1.099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>4</v>
       </c>
@@ -3845,19 +3903,23 @@
         <v>35000</v>
       </c>
       <c r="C29">
-        <v>350000</v>
+        <v>280000</v>
       </c>
       <c r="D29">
-        <v>61372800</v>
-      </c>
-      <c r="E29">
-        <v>175.4</v>
+        <v>58553200</v>
+      </c>
+      <c r="E29" s="2">
+        <v>209.1</v>
       </c>
       <c r="F29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>5</v>
       </c>
@@ -3865,19 +3927,23 @@
         <v>45000</v>
       </c>
       <c r="C30">
-        <v>450000</v>
+        <v>360000</v>
       </c>
       <c r="D30">
-        <v>81346300</v>
-      </c>
-      <c r="E30">
-        <v>180.8</v>
+        <v>80317900</v>
+      </c>
+      <c r="E30" s="2">
+        <v>223.1</v>
       </c>
       <c r="F30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>2.0939999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>6</v>
       </c>
@@ -3885,19 +3951,23 @@
         <v>55000</v>
       </c>
       <c r="C31">
-        <v>550000</v>
+        <v>440000</v>
       </c>
       <c r="D31">
-        <v>100556200</v>
-      </c>
-      <c r="E31">
-        <v>182.8</v>
+        <v>101201400</v>
+      </c>
+      <c r="E31" s="2">
+        <v>230</v>
       </c>
       <c r="F31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>2.6070000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>7</v>
       </c>
@@ -3905,19 +3975,23 @@
         <v>65000</v>
       </c>
       <c r="C32">
-        <v>650000</v>
+        <v>520000</v>
       </c>
       <c r="D32">
-        <v>120512400</v>
-      </c>
-      <c r="E32">
-        <v>185.4</v>
+        <v>124754800</v>
+      </c>
+      <c r="E32" s="2">
+        <v>239.9</v>
       </c>
       <c r="F32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>3.1280000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>8</v>
       </c>
@@ -3925,19 +3999,23 @@
         <v>75000</v>
       </c>
       <c r="C33">
-        <v>750000</v>
+        <v>600000</v>
       </c>
       <c r="D33">
-        <v>140244300</v>
-      </c>
-      <c r="E33">
-        <v>187</v>
+        <v>139999400</v>
+      </c>
+      <c r="E33" s="2">
+        <v>233.3</v>
       </c>
       <c r="F33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>3.6560000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>9</v>
       </c>
@@ -3945,19 +4023,23 @@
         <v>85000</v>
       </c>
       <c r="C34">
-        <v>850000</v>
+        <v>680000</v>
       </c>
       <c r="D34">
-        <v>161928300</v>
-      </c>
-      <c r="E34">
-        <v>190.5</v>
+        <v>173664100</v>
+      </c>
+      <c r="E34" s="2">
+        <v>255.4</v>
       </c>
       <c r="F34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>10</v>
       </c>
@@ -3965,19 +4047,23 @@
         <v>95000</v>
       </c>
       <c r="C35">
-        <v>950000</v>
+        <v>760000</v>
       </c>
       <c r="D35">
-        <v>182287400</v>
-      </c>
-      <c r="E35">
-        <v>191.9</v>
+        <v>186617100</v>
+      </c>
+      <c r="E35" s="2">
+        <v>245.5</v>
       </c>
       <c r="F35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>4.7290000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>11</v>
       </c>
@@ -3985,19 +4071,23 @@
         <v>105000</v>
       </c>
       <c r="C36">
-        <v>1050000</v>
+        <v>840000</v>
       </c>
       <c r="D36">
-        <v>202100000</v>
-      </c>
-      <c r="E36">
-        <v>192.5</v>
+        <v>211870700</v>
+      </c>
+      <c r="E36" s="2">
+        <v>252.2</v>
       </c>
       <c r="F36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>5.2720000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>12</v>
       </c>
@@ -4005,16 +4095,20 @@
         <v>115000</v>
       </c>
       <c r="C37">
-        <v>1150000</v>
+        <v>920000</v>
       </c>
       <c r="D37">
-        <v>227237600</v>
-      </c>
-      <c r="E37">
-        <v>197.6</v>
+        <v>235162500</v>
+      </c>
+      <c r="E37" s="2">
+        <v>255.6</v>
       </c>
       <c r="F37" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>5.82</v>
       </c>
     </row>
   </sheetData>
@@ -4028,17 +4122,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:F87"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.73046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.73046875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4058,7 +4150,7 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4066,979 +4158,979 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2">
         <v>500</v>
       </c>
-      <c r="C2" s="5">
-        <v>10500</v>
-      </c>
-      <c r="D2" s="5">
-        <v>4590100</v>
+      <c r="C2">
+        <v>8000</v>
+      </c>
+      <c r="D2">
+        <v>6585200</v>
       </c>
       <c r="E2" s="2">
-        <v>437.2</v>
+        <v>823.2</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3">
         <v>1500</v>
       </c>
-      <c r="C3" s="5">
-        <v>31500</v>
-      </c>
-      <c r="D3" s="5">
-        <v>8954300</v>
+      <c r="C3">
+        <v>24000</v>
+      </c>
+      <c r="D3">
+        <v>9316300</v>
       </c>
       <c r="E3" s="2">
-        <v>284.3</v>
+        <v>388.2</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>2500</v>
       </c>
-      <c r="C4" s="5">
-        <v>52500</v>
-      </c>
-      <c r="D4" s="5">
-        <v>13492300</v>
+      <c r="C4">
+        <v>40000</v>
+      </c>
+      <c r="D4">
+        <v>15070200</v>
       </c>
       <c r="E4" s="2">
-        <v>257</v>
+        <v>376.8</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>3500</v>
       </c>
-      <c r="C5" s="5">
-        <v>73500</v>
-      </c>
-      <c r="D5" s="5">
-        <v>10075600</v>
+      <c r="C5">
+        <v>56000</v>
+      </c>
+      <c r="D5">
+        <v>14362800</v>
       </c>
       <c r="E5" s="2">
-        <v>137.1</v>
+        <v>256.5</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>4500</v>
       </c>
-      <c r="C6" s="5">
-        <v>94500</v>
-      </c>
-      <c r="D6" s="5">
-        <v>12560800</v>
+      <c r="C6">
+        <v>72000</v>
+      </c>
+      <c r="D6">
+        <v>11168700</v>
       </c>
       <c r="E6" s="2">
-        <v>132.9</v>
+        <v>155.1</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>5500</v>
       </c>
-      <c r="C7" s="5">
-        <v>115500</v>
-      </c>
-      <c r="D7" s="5">
-        <v>15923700</v>
+      <c r="C7">
+        <v>88000</v>
+      </c>
+      <c r="D7">
+        <v>13311500</v>
       </c>
       <c r="E7" s="2">
-        <v>137.9</v>
+        <v>151.30000000000001</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>6500</v>
       </c>
-      <c r="C8" s="5">
-        <v>136500</v>
-      </c>
-      <c r="D8" s="5">
-        <v>19432800</v>
+      <c r="C8">
+        <v>104000</v>
+      </c>
+      <c r="D8">
+        <v>15935600</v>
       </c>
       <c r="E8" s="2">
-        <v>142.4</v>
+        <v>153.19999999999999</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>7500</v>
       </c>
-      <c r="C9" s="5">
-        <v>157500</v>
-      </c>
-      <c r="D9" s="5">
-        <v>22614800</v>
+      <c r="C9">
+        <v>120000</v>
+      </c>
+      <c r="D9">
+        <v>21292000</v>
       </c>
       <c r="E9" s="2">
-        <v>143.6</v>
+        <v>177.4</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10">
         <v>8500</v>
       </c>
-      <c r="C10" s="5">
-        <v>178500</v>
-      </c>
-      <c r="D10" s="5">
-        <v>29037600</v>
+      <c r="C10">
+        <v>136000</v>
+      </c>
+      <c r="D10">
+        <v>30489100</v>
       </c>
       <c r="E10" s="2">
-        <v>162.69999999999999</v>
+        <v>224.2</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <v>9500</v>
       </c>
-      <c r="C11" s="5">
-        <v>199500</v>
-      </c>
-      <c r="D11" s="5">
-        <v>29642600</v>
+      <c r="C11">
+        <v>152000</v>
+      </c>
+      <c r="D11">
+        <v>22433400</v>
       </c>
       <c r="E11" s="2">
-        <v>148.6</v>
+        <v>147.6</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12">
         <v>10500</v>
       </c>
-      <c r="C12" s="5">
-        <v>220500</v>
-      </c>
-      <c r="D12" s="5">
-        <v>33032800</v>
+      <c r="C12">
+        <v>168000</v>
+      </c>
+      <c r="D12">
+        <v>26391700</v>
       </c>
       <c r="E12" s="2">
-        <v>149.80000000000001</v>
+        <v>157.1</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13">
         <v>11500</v>
       </c>
-      <c r="C13" s="5">
-        <v>241500</v>
-      </c>
-      <c r="D13" s="5">
-        <v>36671700</v>
+      <c r="C13">
+        <v>184000</v>
+      </c>
+      <c r="D13">
+        <v>28675800</v>
       </c>
       <c r="E13" s="2">
-        <v>151.80000000000001</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="F13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14">
         <v>500</v>
       </c>
-      <c r="C14" s="5">
-        <v>10500</v>
-      </c>
-      <c r="D14" s="5">
-        <v>9468500</v>
+      <c r="C14">
+        <v>8000</v>
+      </c>
+      <c r="D14">
+        <v>8077200</v>
       </c>
       <c r="E14" s="2">
-        <v>901.8</v>
+        <v>1009.7</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15">
         <v>1500</v>
       </c>
-      <c r="C15" s="5">
-        <v>31500</v>
-      </c>
-      <c r="D15" s="5">
-        <v>5892600</v>
+      <c r="C15">
+        <v>24000</v>
+      </c>
+      <c r="D15">
+        <v>6537200</v>
       </c>
       <c r="E15" s="2">
-        <v>187.1</v>
+        <v>272.39999999999998</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>3</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16">
         <v>2500</v>
       </c>
-      <c r="C16" s="5">
-        <v>52500</v>
-      </c>
-      <c r="D16" s="5">
-        <v>8502000</v>
+      <c r="C16">
+        <v>40000</v>
+      </c>
+      <c r="D16">
+        <v>8880000</v>
       </c>
       <c r="E16" s="2">
-        <v>161.9</v>
+        <v>222</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>4</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17">
         <v>3500</v>
       </c>
-      <c r="C17" s="5">
-        <v>73500</v>
-      </c>
-      <c r="D17" s="5">
-        <v>10079300</v>
+      <c r="C17">
+        <v>56000</v>
+      </c>
+      <c r="D17">
+        <v>10668800</v>
       </c>
       <c r="E17" s="2">
-        <v>137.1</v>
+        <v>190.5</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>5</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18">
         <v>4500</v>
       </c>
-      <c r="C18" s="5">
-        <v>94500</v>
-      </c>
-      <c r="D18" s="5">
-        <v>13009000</v>
+      <c r="C18">
+        <v>72000</v>
+      </c>
+      <c r="D18">
+        <v>11222100</v>
       </c>
       <c r="E18" s="2">
-        <v>137.69999999999999</v>
+        <v>155.9</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>6</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19">
         <v>5500</v>
       </c>
-      <c r="C19" s="5">
-        <v>115500</v>
-      </c>
-      <c r="D19" s="5">
-        <v>16705000</v>
+      <c r="C19">
+        <v>88000</v>
+      </c>
+      <c r="D19">
+        <v>13398900</v>
       </c>
       <c r="E19" s="2">
-        <v>144.6</v>
+        <v>152.30000000000001</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>7</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20">
         <v>6500</v>
       </c>
-      <c r="C20" s="5">
-        <v>136500</v>
-      </c>
-      <c r="D20" s="5">
-        <v>19672900</v>
+      <c r="C20">
+        <v>104000</v>
+      </c>
+      <c r="D20">
+        <v>16065300</v>
       </c>
       <c r="E20" s="2">
-        <v>144.1</v>
+        <v>154.5</v>
       </c>
       <c r="F20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>8</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21">
         <v>7500</v>
       </c>
-      <c r="C21" s="5">
-        <v>157500</v>
-      </c>
-      <c r="D21" s="5">
-        <v>23219300</v>
+      <c r="C21">
+        <v>120000</v>
+      </c>
+      <c r="D21">
+        <v>19424400</v>
       </c>
       <c r="E21" s="2">
-        <v>147.4</v>
+        <v>161.9</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>9</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22">
         <v>8500</v>
       </c>
-      <c r="C22" s="5">
-        <v>178500</v>
-      </c>
-      <c r="D22" s="5">
-        <v>25827400</v>
+      <c r="C22">
+        <v>136000</v>
+      </c>
+      <c r="D22">
+        <v>21075900</v>
       </c>
       <c r="E22" s="2">
-        <v>144.69999999999999</v>
+        <v>155</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>10</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23">
         <v>9500</v>
       </c>
-      <c r="C23" s="5">
-        <v>199500</v>
-      </c>
-      <c r="D23" s="5">
-        <v>30447400</v>
+      <c r="C23">
+        <v>152000</v>
+      </c>
+      <c r="D23">
+        <v>25370400</v>
       </c>
       <c r="E23" s="2">
-        <v>152.6</v>
+        <v>166.9</v>
       </c>
       <c r="F23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>11</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24">
         <v>10500</v>
       </c>
-      <c r="C24" s="5">
-        <v>220500</v>
-      </c>
-      <c r="D24" s="5">
-        <v>32843000</v>
+      <c r="C24">
+        <v>168000</v>
+      </c>
+      <c r="D24">
+        <v>27033900</v>
       </c>
       <c r="E24" s="2">
-        <v>148.9</v>
+        <v>160.9</v>
       </c>
       <c r="F24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>12</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25">
         <v>11500</v>
       </c>
-      <c r="C25" s="5">
-        <v>241500</v>
-      </c>
-      <c r="D25" s="5">
-        <v>36732900</v>
+      <c r="C25">
+        <v>184000</v>
+      </c>
+      <c r="D25">
+        <v>30204200</v>
       </c>
       <c r="E25" s="2">
-        <v>152.1</v>
+        <v>164.2</v>
       </c>
       <c r="F25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26">
         <v>500</v>
       </c>
-      <c r="C26" s="5">
-        <v>10500</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1826000</v>
+      <c r="C26">
+        <v>8000</v>
+      </c>
+      <c r="D26">
+        <v>2801400</v>
       </c>
       <c r="E26" s="2">
-        <v>173.9</v>
+        <v>350.2</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27">
         <v>1500</v>
       </c>
-      <c r="C27" s="5">
-        <v>31500</v>
-      </c>
-      <c r="D27" s="5">
-        <v>7342000</v>
+      <c r="C27">
+        <v>24000</v>
+      </c>
+      <c r="D27">
+        <v>7162200</v>
       </c>
       <c r="E27" s="2">
-        <v>233.1</v>
+        <v>298.39999999999998</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>3</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28">
         <v>2500</v>
       </c>
-      <c r="C28" s="5">
-        <v>52500</v>
-      </c>
-      <c r="D28" s="5">
-        <v>14406300</v>
+      <c r="C28">
+        <v>40000</v>
+      </c>
+      <c r="D28">
+        <v>10835600</v>
       </c>
       <c r="E28" s="2">
-        <v>274.39999999999998</v>
+        <v>270.89999999999998</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>4</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29">
         <v>3500</v>
       </c>
-      <c r="C29" s="5">
-        <v>73500</v>
-      </c>
-      <c r="D29" s="5">
-        <v>23539100</v>
+      <c r="C29">
+        <v>56000</v>
+      </c>
+      <c r="D29">
+        <v>15897300</v>
       </c>
       <c r="E29" s="2">
-        <v>320.3</v>
+        <v>283.89999999999998</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>5</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30">
         <v>4500</v>
       </c>
-      <c r="C30" s="5">
-        <v>94500</v>
-      </c>
-      <c r="D30" s="5">
-        <v>27746300</v>
+      <c r="C30">
+        <v>72000</v>
+      </c>
+      <c r="D30">
+        <v>22114500</v>
       </c>
       <c r="E30" s="2">
-        <v>293.60000000000002</v>
+        <v>307.10000000000002</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>6</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31">
         <v>5500</v>
       </c>
-      <c r="C31" s="5">
-        <v>115500</v>
-      </c>
-      <c r="D31" s="5">
-        <v>39166300</v>
+      <c r="C31">
+        <v>88000</v>
+      </c>
+      <c r="D31">
+        <v>31756300</v>
       </c>
       <c r="E31" s="2">
-        <v>339.1</v>
+        <v>360.9</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>7</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32">
         <v>6500</v>
       </c>
-      <c r="C32" s="5">
-        <v>136500</v>
-      </c>
-      <c r="D32" s="5">
-        <v>49571800</v>
+      <c r="C32">
+        <v>104000</v>
+      </c>
+      <c r="D32">
+        <v>45480400</v>
       </c>
       <c r="E32" s="2">
-        <v>363.2</v>
+        <v>437.3</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>8</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33">
         <v>7500</v>
       </c>
-      <c r="C33" s="5">
-        <v>157500</v>
-      </c>
-      <c r="D33" s="5">
-        <v>61783600</v>
+      <c r="C33">
+        <v>120000</v>
+      </c>
+      <c r="D33">
+        <v>50036200</v>
       </c>
       <c r="E33" s="2">
-        <v>392.3</v>
+        <v>417</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>9</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34">
         <v>8500</v>
       </c>
-      <c r="C34" s="5">
-        <v>178500</v>
-      </c>
-      <c r="D34" s="5">
-        <v>77452900</v>
+      <c r="C34">
+        <v>136000</v>
+      </c>
+      <c r="D34">
+        <v>66344400</v>
       </c>
       <c r="E34" s="2">
-        <v>433.9</v>
+        <v>487.8</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>10</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35">
         <v>9500</v>
       </c>
-      <c r="C35" s="5">
-        <v>199500</v>
-      </c>
-      <c r="D35" s="5">
-        <v>97445300</v>
+      <c r="C35">
+        <v>152000</v>
+      </c>
+      <c r="D35">
+        <v>77987000</v>
       </c>
       <c r="E35" s="2">
-        <v>488.4</v>
+        <v>513.1</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>11</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36">
         <v>10500</v>
       </c>
-      <c r="C36" s="5">
-        <v>220500</v>
-      </c>
-      <c r="D36" s="5">
-        <v>117035400</v>
+      <c r="C36">
+        <v>168000</v>
+      </c>
+      <c r="D36">
+        <v>96697500</v>
       </c>
       <c r="E36" s="2">
-        <v>530.79999999999995</v>
+        <v>575.6</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>12</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37">
         <v>11500</v>
       </c>
-      <c r="C37" s="5">
-        <v>241500</v>
-      </c>
-      <c r="D37" s="5">
-        <v>139634500</v>
+      <c r="C37">
+        <v>184000</v>
+      </c>
+      <c r="D37">
+        <v>114439200</v>
       </c>
       <c r="E37" s="2">
-        <v>578.20000000000005</v>
+        <v>622</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>1</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38">
         <v>500</v>
       </c>
-      <c r="C38" s="5">
-        <v>10500</v>
-      </c>
-      <c r="D38" s="5">
-        <v>800300</v>
+      <c r="C38">
+        <v>8000</v>
+      </c>
+      <c r="D38">
+        <v>661800</v>
       </c>
       <c r="E38" s="2">
-        <v>76.2</v>
+        <v>82.7</v>
       </c>
       <c r="F38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>2</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39">
         <v>1500</v>
       </c>
-      <c r="C39" s="5">
-        <v>31500</v>
-      </c>
-      <c r="D39" s="5">
-        <v>3476400</v>
+      <c r="C39">
+        <v>24000</v>
+      </c>
+      <c r="D39">
+        <v>2939700</v>
       </c>
       <c r="E39" s="2">
-        <v>110.4</v>
+        <v>122.5</v>
       </c>
       <c r="F39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>3</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40">
         <v>2500</v>
       </c>
-      <c r="C40" s="5">
-        <v>52500</v>
-      </c>
-      <c r="D40" s="5">
-        <v>7492100</v>
+      <c r="C40">
+        <v>40000</v>
+      </c>
+      <c r="D40">
+        <v>5828400</v>
       </c>
       <c r="E40" s="2">
-        <v>142.69999999999999</v>
+        <v>145.69999999999999</v>
       </c>
       <c r="F40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>4</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41">
         <v>3500</v>
       </c>
-      <c r="C41" s="5">
-        <v>73500</v>
-      </c>
-      <c r="D41" s="5">
-        <v>10166000</v>
+      <c r="C41">
+        <v>56000</v>
+      </c>
+      <c r="D41">
+        <v>8704400</v>
       </c>
       <c r="E41" s="2">
-        <v>138.30000000000001</v>
+        <v>155.4</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>5</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42">
         <v>4500</v>
       </c>
-      <c r="C42" s="5">
-        <v>94500</v>
-      </c>
-      <c r="D42" s="5">
-        <v>13340600</v>
+      <c r="C42">
+        <v>72000</v>
+      </c>
+      <c r="D42">
+        <v>10221000</v>
       </c>
       <c r="E42" s="2">
-        <v>141.19999999999999</v>
+        <v>142</v>
       </c>
       <c r="F42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>6</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43">
         <v>5500</v>
       </c>
-      <c r="C43" s="5">
-        <v>115500</v>
-      </c>
-      <c r="D43" s="5">
-        <v>14855200</v>
+      <c r="C43">
+        <v>88000</v>
+      </c>
+      <c r="D43">
+        <v>13127100</v>
       </c>
       <c r="E43" s="2">
-        <v>128.6</v>
+        <v>149.19999999999999</v>
       </c>
       <c r="F43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>7</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44">
         <v>6500</v>
       </c>
-      <c r="C44" s="5">
-        <v>136500</v>
-      </c>
-      <c r="D44" s="5">
-        <v>18444300</v>
+      <c r="C44">
+        <v>104000</v>
+      </c>
+      <c r="D44">
+        <v>15401400</v>
       </c>
       <c r="E44" s="2">
-        <v>135.1</v>
+        <v>148.1</v>
       </c>
       <c r="F44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>8</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45">
         <v>7500</v>
       </c>
-      <c r="C45" s="5">
-        <v>157500</v>
-      </c>
-      <c r="D45" s="5">
-        <v>21207500</v>
+      <c r="C45">
+        <v>120000</v>
+      </c>
+      <c r="D45">
+        <v>17908800</v>
       </c>
       <c r="E45" s="2">
-        <v>134.69999999999999</v>
+        <v>149.19999999999999</v>
       </c>
       <c r="F45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>9</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46">
         <v>8500</v>
       </c>
-      <c r="C46" s="5">
-        <v>178500</v>
-      </c>
-      <c r="D46" s="5">
-        <v>24394700</v>
+      <c r="C46">
+        <v>136000</v>
+      </c>
+      <c r="D46">
+        <v>20349900</v>
       </c>
       <c r="E46" s="2">
-        <v>136.69999999999999</v>
+        <v>149.6</v>
       </c>
       <c r="F46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>10</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47">
         <v>9500</v>
       </c>
-      <c r="C47" s="5">
-        <v>199500</v>
-      </c>
-      <c r="D47" s="5">
-        <v>28161900</v>
+      <c r="C47">
+        <v>152000</v>
+      </c>
+      <c r="D47">
+        <v>23248400</v>
       </c>
       <c r="E47" s="2">
-        <v>141.19999999999999</v>
+        <v>153</v>
       </c>
       <c r="F47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>11</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48">
         <v>10500</v>
       </c>
-      <c r="C48" s="5">
-        <v>220500</v>
-      </c>
-      <c r="D48" s="5">
-        <v>31444000</v>
+      <c r="C48">
+        <v>168000</v>
+      </c>
+      <c r="D48">
+        <v>26336000</v>
       </c>
       <c r="E48" s="2">
-        <v>142.6</v>
+        <v>156.80000000000001</v>
       </c>
       <c r="F48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>12</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49">
         <v>11500</v>
       </c>
-      <c r="C49" s="5">
-        <v>241500</v>
-      </c>
-      <c r="D49" s="5">
-        <v>34954100</v>
+      <c r="C49">
+        <v>184000</v>
+      </c>
+      <c r="D49">
+        <v>31659000</v>
       </c>
       <c r="E49" s="2">
-        <v>144.69999999999999</v>
+        <v>172.1</v>
       </c>
       <c r="F49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5050,16 +5142,16 @@
         <v>5000</v>
       </c>
       <c r="C52">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="D52">
-        <v>13496800</v>
-      </c>
-      <c r="E52">
-        <v>385.6</v>
+        <v>9497500</v>
+      </c>
+      <c r="E52" s="2">
+        <v>379.9</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
@@ -5070,16 +5162,16 @@
         <v>15000</v>
       </c>
       <c r="C53">
-        <v>105000</v>
+        <v>75000</v>
       </c>
       <c r="D53">
-        <v>82525000</v>
-      </c>
-      <c r="E53">
-        <v>786</v>
+        <v>68271200</v>
+      </c>
+      <c r="E53" s="2">
+        <v>910.3</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
@@ -5090,16 +5182,16 @@
         <v>25000</v>
       </c>
       <c r="C54">
-        <v>175000</v>
+        <v>125000</v>
       </c>
       <c r="D54">
-        <v>208459000</v>
-      </c>
-      <c r="E54">
-        <v>1191.2</v>
+        <v>172328200</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1378.6</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
@@ -5110,16 +5202,16 @@
         <v>35000</v>
       </c>
       <c r="C55">
-        <v>245000</v>
+        <v>175000</v>
       </c>
       <c r="D55">
-        <v>426537300</v>
-      </c>
-      <c r="E55">
-        <v>1741</v>
+        <v>327492900</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1871.4</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
@@ -5130,16 +5222,16 @@
         <v>45000</v>
       </c>
       <c r="C56">
-        <v>315000</v>
+        <v>225000</v>
       </c>
       <c r="D56">
-        <v>657184000</v>
-      </c>
-      <c r="E56">
-        <v>2086.3000000000002</v>
+        <v>532517000</v>
+      </c>
+      <c r="E56" s="2">
+        <v>2366.6999999999998</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
@@ -5150,16 +5242,16 @@
         <v>55000</v>
       </c>
       <c r="C57">
-        <v>385000</v>
+        <v>275000</v>
       </c>
       <c r="D57">
-        <v>983817100</v>
-      </c>
-      <c r="E57">
-        <v>2555.4</v>
+        <v>769275300</v>
+      </c>
+      <c r="E57" s="2">
+        <v>2797.4</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
@@ -5170,16 +5262,16 @@
         <v>65000</v>
       </c>
       <c r="C58">
-        <v>455000</v>
+        <v>325000</v>
       </c>
       <c r="D58">
-        <v>1365333400</v>
-      </c>
-      <c r="E58">
-        <v>3000.7</v>
+        <v>1060423800</v>
+      </c>
+      <c r="E58" s="2">
+        <v>3262.8</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
@@ -5190,16 +5282,16 @@
         <v>75000</v>
       </c>
       <c r="C59">
-        <v>525000</v>
+        <v>375000</v>
       </c>
       <c r="D59">
-        <v>1687052700</v>
-      </c>
-      <c r="E59">
-        <v>3213.4</v>
+        <v>1474132200</v>
+      </c>
+      <c r="E59" s="2">
+        <v>3931</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
@@ -5210,16 +5302,16 @@
         <v>85000</v>
       </c>
       <c r="C60">
-        <v>595000</v>
+        <v>425000</v>
       </c>
       <c r="D60">
-        <v>2518561300</v>
-      </c>
-      <c r="E60">
-        <v>4232.8999999999996</v>
+        <v>1911562800</v>
+      </c>
+      <c r="E60" s="2">
+        <v>4497.8</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
@@ -5230,16 +5322,16 @@
         <v>95000</v>
       </c>
       <c r="C61">
-        <v>665000</v>
+        <v>475000</v>
       </c>
       <c r="D61">
-        <v>3253895700</v>
-      </c>
-      <c r="E61">
-        <v>4893.1000000000004</v>
+        <v>2425296900</v>
+      </c>
+      <c r="E61" s="2">
+        <v>5105.8999999999996</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
@@ -5250,16 +5342,16 @@
         <v>105000</v>
       </c>
       <c r="C62">
-        <v>735000</v>
+        <v>525000</v>
       </c>
       <c r="D62">
-        <v>3963922500</v>
-      </c>
-      <c r="E62">
-        <v>5393.1</v>
+        <v>2997079500</v>
+      </c>
+      <c r="E62" s="2">
+        <v>5708.7</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
@@ -5270,16 +5362,16 @@
         <v>115000</v>
       </c>
       <c r="C63">
-        <v>805000</v>
+        <v>575000</v>
       </c>
       <c r="D63">
-        <v>4905430500</v>
-      </c>
-      <c r="E63">
-        <v>6093.7</v>
+        <v>3693485700</v>
+      </c>
+      <c r="E63" s="2">
+        <v>6423.5</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
@@ -5290,16 +5382,16 @@
         <v>5000</v>
       </c>
       <c r="C64">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="D64">
-        <v>7222400</v>
-      </c>
-      <c r="E64">
-        <v>144.4</v>
+        <v>8747100</v>
+      </c>
+      <c r="E64" s="2">
+        <v>218.7</v>
       </c>
       <c r="F64" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
@@ -5310,16 +5402,16 @@
         <v>15000</v>
       </c>
       <c r="C65">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="D65">
-        <v>23032300</v>
-      </c>
-      <c r="E65">
-        <v>153.5</v>
+        <v>23958000</v>
+      </c>
+      <c r="E65" s="2">
+        <v>199.7</v>
       </c>
       <c r="F65" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
@@ -5330,16 +5422,16 @@
         <v>25000</v>
       </c>
       <c r="C66">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="D66">
-        <v>39066000</v>
-      </c>
-      <c r="E66">
-        <v>156.30000000000001</v>
+        <v>39431500</v>
+      </c>
+      <c r="E66" s="2">
+        <v>197.2</v>
       </c>
       <c r="F66" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
@@ -5350,16 +5442,16 @@
         <v>35000</v>
       </c>
       <c r="C67">
-        <v>350000</v>
+        <v>280000</v>
       </c>
       <c r="D67">
-        <v>56946600</v>
-      </c>
-      <c r="E67">
-        <v>162.69999999999999</v>
+        <v>53744700</v>
+      </c>
+      <c r="E67" s="2">
+        <v>191.9</v>
       </c>
       <c r="F67" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
@@ -5370,16 +5462,16 @@
         <v>45000</v>
       </c>
       <c r="C68">
-        <v>450000</v>
+        <v>360000</v>
       </c>
       <c r="D68">
-        <v>73364100</v>
-      </c>
-      <c r="E68">
-        <v>163</v>
+        <v>73906500</v>
+      </c>
+      <c r="E68" s="2">
+        <v>205.3</v>
       </c>
       <c r="F68" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
@@ -5390,16 +5482,16 @@
         <v>55000</v>
       </c>
       <c r="C69">
-        <v>550000</v>
+        <v>440000</v>
       </c>
       <c r="D69">
-        <v>91407400</v>
-      </c>
-      <c r="E69">
-        <v>166.2</v>
+        <v>91507600</v>
+      </c>
+      <c r="E69" s="2">
+        <v>208</v>
       </c>
       <c r="F69" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
@@ -5410,16 +5502,16 @@
         <v>65000</v>
       </c>
       <c r="C70">
-        <v>650000</v>
+        <v>520000</v>
       </c>
       <c r="D70">
-        <v>112218500</v>
-      </c>
-      <c r="E70">
-        <v>172.6</v>
+        <v>109859600</v>
+      </c>
+      <c r="E70" s="2">
+        <v>211.3</v>
       </c>
       <c r="F70" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
@@ -5430,16 +5522,16 @@
         <v>75000</v>
       </c>
       <c r="C71">
-        <v>750000</v>
+        <v>600000</v>
       </c>
       <c r="D71">
-        <v>134317800</v>
-      </c>
-      <c r="E71">
-        <v>179.1</v>
+        <v>139766300</v>
+      </c>
+      <c r="E71" s="2">
+        <v>232.9</v>
       </c>
       <c r="F71" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
@@ -5450,16 +5542,16 @@
         <v>85000</v>
       </c>
       <c r="C72">
-        <v>850000</v>
+        <v>680000</v>
       </c>
       <c r="D72">
-        <v>149309700</v>
-      </c>
-      <c r="E72">
-        <v>175.7</v>
+        <v>150614500</v>
+      </c>
+      <c r="E72" s="2">
+        <v>221.5</v>
       </c>
       <c r="F72" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
@@ -5470,16 +5562,16 @@
         <v>95000</v>
       </c>
       <c r="C73">
-        <v>950000</v>
+        <v>760000</v>
       </c>
       <c r="D73">
-        <v>167321900</v>
-      </c>
-      <c r="E73">
-        <v>176.1</v>
+        <v>178713200</v>
+      </c>
+      <c r="E73" s="2">
+        <v>235.1</v>
       </c>
       <c r="F73" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
@@ -5490,16 +5582,16 @@
         <v>105000</v>
       </c>
       <c r="C74">
-        <v>1050000</v>
+        <v>840000</v>
       </c>
       <c r="D74">
-        <v>187019500</v>
-      </c>
-      <c r="E74">
-        <v>178.1</v>
+        <v>194020000</v>
+      </c>
+      <c r="E74" s="2">
+        <v>231</v>
       </c>
       <c r="F74" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
@@ -5510,16 +5602,16 @@
         <v>115000</v>
       </c>
       <c r="C75">
-        <v>1150000</v>
+        <v>920000</v>
       </c>
       <c r="D75">
-        <v>210657200</v>
-      </c>
-      <c r="E75">
-        <v>183.2</v>
+        <v>213542100</v>
+      </c>
+      <c r="E75" s="2">
+        <v>232.1</v>
       </c>
       <c r="F75" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
@@ -5530,16 +5622,16 @@
         <v>5000</v>
       </c>
       <c r="C76">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="D76">
-        <v>7471000</v>
-      </c>
-      <c r="E76">
-        <v>149.4</v>
+        <v>7253500</v>
+      </c>
+      <c r="E76" s="2">
+        <v>181.3</v>
       </c>
       <c r="F76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
@@ -5550,16 +5642,16 @@
         <v>15000</v>
       </c>
       <c r="C77">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="D77">
-        <v>24651600</v>
-      </c>
-      <c r="E77">
-        <v>164.3</v>
+        <v>23079600</v>
+      </c>
+      <c r="E77" s="2">
+        <v>192.3</v>
       </c>
       <c r="F77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
@@ -5570,16 +5662,16 @@
         <v>25000</v>
       </c>
       <c r="C78">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="D78">
-        <v>42033500</v>
-      </c>
-      <c r="E78">
-        <v>168.1</v>
+        <v>40168600</v>
+      </c>
+      <c r="E78" s="2">
+        <v>200.8</v>
       </c>
       <c r="F78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
@@ -5590,16 +5682,16 @@
         <v>35000</v>
       </c>
       <c r="C79">
-        <v>350000</v>
+        <v>280000</v>
       </c>
       <c r="D79">
-        <v>61372800</v>
-      </c>
-      <c r="E79">
-        <v>175.4</v>
+        <v>58553200</v>
+      </c>
+      <c r="E79" s="2">
+        <v>209.1</v>
       </c>
       <c r="F79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
@@ -5610,16 +5702,16 @@
         <v>45000</v>
       </c>
       <c r="C80">
-        <v>450000</v>
+        <v>360000</v>
       </c>
       <c r="D80">
-        <v>81346300</v>
-      </c>
-      <c r="E80">
-        <v>180.8</v>
+        <v>80317900</v>
+      </c>
+      <c r="E80" s="2">
+        <v>223.1</v>
       </c>
       <c r="F80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
@@ -5630,16 +5722,16 @@
         <v>55000</v>
       </c>
       <c r="C81">
-        <v>550000</v>
+        <v>440000</v>
       </c>
       <c r="D81">
-        <v>100556200</v>
-      </c>
-      <c r="E81">
-        <v>182.8</v>
+        <v>101201400</v>
+      </c>
+      <c r="E81" s="2">
+        <v>230</v>
       </c>
       <c r="F81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
@@ -5650,16 +5742,16 @@
         <v>65000</v>
       </c>
       <c r="C82">
-        <v>650000</v>
+        <v>520000</v>
       </c>
       <c r="D82">
-        <v>120512400</v>
-      </c>
-      <c r="E82">
-        <v>185.4</v>
+        <v>124754800</v>
+      </c>
+      <c r="E82" s="2">
+        <v>239.9</v>
       </c>
       <c r="F82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
@@ -5670,16 +5762,16 @@
         <v>75000</v>
       </c>
       <c r="C83">
-        <v>750000</v>
+        <v>600000</v>
       </c>
       <c r="D83">
-        <v>140244300</v>
-      </c>
-      <c r="E83">
-        <v>187</v>
+        <v>139999400</v>
+      </c>
+      <c r="E83" s="2">
+        <v>233.3</v>
       </c>
       <c r="F83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
@@ -5690,16 +5782,16 @@
         <v>85000</v>
       </c>
       <c r="C84">
-        <v>850000</v>
+        <v>680000</v>
       </c>
       <c r="D84">
-        <v>161928300</v>
-      </c>
-      <c r="E84">
-        <v>190.5</v>
+        <v>173664100</v>
+      </c>
+      <c r="E84" s="2">
+        <v>255.4</v>
       </c>
       <c r="F84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
@@ -5710,16 +5802,16 @@
         <v>95000</v>
       </c>
       <c r="C85">
-        <v>950000</v>
+        <v>760000</v>
       </c>
       <c r="D85">
-        <v>182287400</v>
-      </c>
-      <c r="E85">
-        <v>191.9</v>
+        <v>186617100</v>
+      </c>
+      <c r="E85" s="2">
+        <v>245.5</v>
       </c>
       <c r="F85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
@@ -5730,16 +5822,16 @@
         <v>105000</v>
       </c>
       <c r="C86">
-        <v>1050000</v>
+        <v>840000</v>
       </c>
       <c r="D86">
-        <v>202100000</v>
-      </c>
-      <c r="E86">
-        <v>192.5</v>
+        <v>211870700</v>
+      </c>
+      <c r="E86" s="2">
+        <v>252.2</v>
       </c>
       <c r="F86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
@@ -5750,20 +5842,19 @@
         <v>115000</v>
       </c>
       <c r="C87">
-        <v>1150000</v>
+        <v>920000</v>
       </c>
       <c r="D87">
-        <v>227237600</v>
-      </c>
-      <c r="E87">
-        <v>197.6</v>
+        <v>235162500</v>
+      </c>
+      <c r="E87" s="2">
+        <v>255.6</v>
       </c>
       <c r="F87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>